--- a/Code/Results/Cases/Case_5_17/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_17/res_bus/vm_pu.xlsx
@@ -421,34 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9873087269519011</v>
+        <v>1.009728056559583</v>
       </c>
       <c r="D2">
-        <v>1.008154573794975</v>
+        <v>1.031651309645933</v>
       </c>
       <c r="E2">
-        <v>0.993222006672406</v>
+        <v>1.012388350949162</v>
       </c>
       <c r="F2">
-        <v>0.9832509696112618</v>
+        <v>1.035819859174087</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.039415037746764</v>
+        <v>1.053921547737863</v>
       </c>
       <c r="J2">
-        <v>1.009875773265516</v>
+        <v>1.031621645887246</v>
       </c>
       <c r="K2">
-        <v>1.019501459541911</v>
+        <v>1.042686622814389</v>
       </c>
       <c r="L2">
-        <v>1.004776584412072</v>
+        <v>1.023677752707695</v>
       </c>
       <c r="M2">
-        <v>0.9949486842490285</v>
+        <v>1.046801741349425</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9968991450826645</v>
+        <v>1.018974137114888</v>
       </c>
       <c r="D3">
-        <v>1.015632636397014</v>
+        <v>1.039018107072137</v>
       </c>
       <c r="E3">
-        <v>1.001764893426491</v>
+        <v>1.0204179310349</v>
       </c>
       <c r="F3">
-        <v>0.9938875703604575</v>
+        <v>1.04376030511044</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.043028131967861</v>
+        <v>1.057369300032615</v>
       </c>
       <c r="J3">
-        <v>1.017474700960469</v>
+        <v>1.038960581021366</v>
       </c>
       <c r="K3">
-        <v>1.0260693269826</v>
+        <v>1.049174946395995</v>
       </c>
       <c r="L3">
-        <v>1.012375241810252</v>
+        <v>1.030796059678708</v>
       </c>
       <c r="M3">
-        <v>1.004599262952053</v>
+        <v>1.053862284312472</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.002855118251296</v>
+        <v>1.024739179133853</v>
       </c>
       <c r="D4">
-        <v>1.020279244920836</v>
+        <v>1.043614525284028</v>
       </c>
       <c r="E4">
-        <v>1.007070897667643</v>
+        <v>1.025424841021329</v>
       </c>
       <c r="F4">
-        <v>1.000498546386158</v>
+        <v>1.048718336115482</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.04525501474669</v>
+        <v>1.059503737642197</v>
       </c>
       <c r="J4">
-        <v>1.022186070716817</v>
+        <v>1.043530547633803</v>
       </c>
       <c r="K4">
-        <v>1.030138926491207</v>
+        <v>1.05321358501192</v>
       </c>
       <c r="L4">
-        <v>1.017084725753674</v>
+        <v>1.035225797053879</v>
       </c>
       <c r="M4">
-        <v>1.010590958114226</v>
+        <v>1.058262288484404</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.005303713536408</v>
+        <v>1.027114236986113</v>
       </c>
       <c r="D5">
-        <v>1.022189969463727</v>
+        <v>1.045508739529367</v>
       </c>
       <c r="E5">
-        <v>1.00925233471095</v>
+        <v>1.027487560272904</v>
       </c>
       <c r="F5">
-        <v>1.00321777806501</v>
+        <v>1.050762461777771</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.046166374391736</v>
+        <v>1.060379328564049</v>
       </c>
       <c r="J5">
-        <v>1.02412105030692</v>
+        <v>1.045411758875384</v>
       </c>
       <c r="K5">
-        <v>1.031809682627447</v>
+        <v>1.05487564320724</v>
       </c>
       <c r="L5">
-        <v>1.019018528051506</v>
+        <v>1.037048602362447</v>
       </c>
       <c r="M5">
-        <v>1.01305389232028</v>
+        <v>1.060074299852275</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.005711721127295</v>
+        <v>1.027510268592735</v>
       </c>
       <c r="D6">
-        <v>1.02250837284386</v>
+        <v>1.045824623586012</v>
       </c>
       <c r="E6">
-        <v>1.009615826801537</v>
+        <v>1.027831507653816</v>
       </c>
       <c r="F6">
-        <v>1.00367096358981</v>
+        <v>1.051103397796614</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.046317987416709</v>
+        <v>1.0605251073215</v>
       </c>
       <c r="J6">
-        <v>1.024443358644609</v>
+        <v>1.045725352852605</v>
       </c>
       <c r="K6">
-        <v>1.032087940212146</v>
+        <v>1.055152678266799</v>
       </c>
       <c r="L6">
-        <v>1.01934061685372</v>
+        <v>1.037352420161966</v>
       </c>
       <c r="M6">
-        <v>1.013464270024959</v>
+        <v>1.060376401985333</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.002888048257903</v>
+        <v>1.024771101162458</v>
       </c>
       <c r="D7">
-        <v>1.020304939858643</v>
+        <v>1.043639982327916</v>
       </c>
       <c r="E7">
-        <v>1.007100234679885</v>
+        <v>1.025452565199969</v>
       </c>
       <c r="F7">
-        <v>1.000535110576431</v>
+        <v>1.048745804349789</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.045267287740948</v>
+        <v>1.05951552099365</v>
       </c>
       <c r="J7">
-        <v>1.022212101119881</v>
+        <v>1.043555838164244</v>
       </c>
       <c r="K7">
-        <v>1.030161405034018</v>
+        <v>1.053235931071312</v>
       </c>
       <c r="L7">
-        <v>1.01711074190519</v>
+        <v>1.035250305088026</v>
       </c>
       <c r="M7">
-        <v>1.01062408227708</v>
+        <v>1.058286645739994</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9906044219287895</v>
+        <v>1.012900185361893</v>
       </c>
       <c r="D8">
-        <v>1.010723734257071</v>
+        <v>1.034177935693508</v>
       </c>
       <c r="E8">
-        <v>0.9961575427785275</v>
+        <v>1.015142984041834</v>
       </c>
       <c r="F8">
-        <v>0.9869051116094588</v>
+        <v>1.038542451001446</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.040660218024632</v>
+        <v>1.055107584721864</v>
       </c>
       <c r="J8">
-        <v>1.012488725406429</v>
+        <v>1.034140685618966</v>
       </c>
       <c r="K8">
-        <v>1.021760378932258</v>
+        <v>1.044914022126743</v>
       </c>
       <c r="L8">
-        <v>1.00738981539133</v>
+        <v>1.026121667609258</v>
       </c>
       <c r="M8">
-        <v>0.9982654325802848</v>
+        <v>1.049224472586189</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9668115862780284</v>
+        <v>0.9901298103473718</v>
       </c>
       <c r="D9">
-        <v>0.9921951204260766</v>
+        <v>1.01606214953533</v>
       </c>
       <c r="E9">
-        <v>0.9749717088846499</v>
+        <v>0.9953758122506575</v>
       </c>
       <c r="F9">
-        <v>0.960543555965425</v>
+        <v>1.019037701714292</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.031599255138545</v>
+        <v>1.046530606434981</v>
       </c>
       <c r="J9">
-        <v>0.9935933181235862</v>
+        <v>1.016035990472962</v>
       </c>
       <c r="K9">
-        <v>1.005416108451976</v>
+        <v>1.028899895969911</v>
       </c>
       <c r="L9">
-        <v>0.9884843387483123</v>
+        <v>1.008544361868941</v>
       </c>
       <c r="M9">
-        <v>0.9743109583388394</v>
+        <v>1.031829276163754</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9491071503656011</v>
+        <v>0.9734001722719361</v>
       </c>
       <c r="D10">
-        <v>0.9784437839555172</v>
+        <v>1.002789139808594</v>
       </c>
       <c r="E10">
-        <v>0.9592221494162568</v>
+        <v>0.9808672227052513</v>
       </c>
       <c r="F10">
-        <v>0.940946088722484</v>
+        <v>1.004767782086762</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.024768706590677</v>
+        <v>1.040152092055699</v>
       </c>
       <c r="J10">
-        <v>0.9794963329656071</v>
+        <v>1.002710399720758</v>
       </c>
       <c r="K10">
-        <v>0.9932134640459204</v>
+        <v>1.017108217420865</v>
       </c>
       <c r="L10">
-        <v>0.974368874472803</v>
+        <v>0.9955907370331072</v>
       </c>
       <c r="M10">
-        <v>0.9564702330215251</v>
+        <v>1.019051483057993</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.940887535281935</v>
+        <v>0.9657032222329527</v>
       </c>
       <c r="D11">
-        <v>0.9720723813793185</v>
+        <v>0.996694987845067</v>
       </c>
       <c r="E11">
-        <v>0.9519160956985518</v>
+        <v>0.9741980825168195</v>
       </c>
       <c r="F11">
-        <v>0.9318493768506254</v>
+        <v>0.99822085188468</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.021578243097742</v>
+        <v>1.037200985764336</v>
       </c>
       <c r="J11">
-        <v>0.9729444132272617</v>
+        <v>0.9965758218884554</v>
       </c>
       <c r="K11">
-        <v>0.9875409155912934</v>
+        <v>1.011679502164734</v>
       </c>
       <c r="L11">
-        <v>0.9678055796374043</v>
+        <v>0.9896235598485267</v>
       </c>
       <c r="M11">
-        <v>0.9481820959485768</v>
+        <v>1.013176398509069</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9377385582771512</v>
+        <v>0.9627672185609187</v>
       </c>
       <c r="D12">
-        <v>0.9696338582811763</v>
+        <v>0.9943726242813373</v>
       </c>
       <c r="E12">
-        <v>0.9491182625070295</v>
+        <v>0.9716552900297198</v>
       </c>
       <c r="F12">
-        <v>0.9283643574654636</v>
+        <v>0.9957266871398465</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.020353250983583</v>
+        <v>1.036072993406642</v>
       </c>
       <c r="J12">
-        <v>0.9704334400215531</v>
+        <v>0.9942354201611237</v>
       </c>
       <c r="K12">
-        <v>0.9853669032273507</v>
+        <v>1.009608435930059</v>
       </c>
       <c r="L12">
-        <v>0.9652898133912334</v>
+        <v>0.9873464511967875</v>
       </c>
       <c r="M12">
-        <v>0.945005921177309</v>
+        <v>1.010936217585899</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9384185974916853</v>
+        <v>0.963400649277628</v>
       </c>
       <c r="D13">
-        <v>0.9701603549704655</v>
+        <v>0.9948735564285348</v>
       </c>
       <c r="E13">
-        <v>0.9497224136131455</v>
+        <v>0.9722038304442531</v>
       </c>
       <c r="F13">
-        <v>0.9291169733055568</v>
+        <v>0.9962646431101025</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.020617913601328</v>
+        <v>1.036316453142168</v>
       </c>
       <c r="J13">
-        <v>0.9709757360982114</v>
+        <v>0.994740365106956</v>
       </c>
       <c r="K13">
-        <v>0.9858364260714436</v>
+        <v>1.010055267964737</v>
       </c>
       <c r="L13">
-        <v>0.9658331643936661</v>
+        <v>0.9878377662425352</v>
       </c>
       <c r="M13">
-        <v>0.945691879485294</v>
+        <v>1.011419482505113</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9406292788885461</v>
+        <v>0.9654621603397371</v>
       </c>
       <c r="D14">
-        <v>0.9718723400443176</v>
+        <v>0.9965042612101747</v>
       </c>
       <c r="E14">
-        <v>0.9516866126374905</v>
+        <v>0.9739892804411328</v>
       </c>
       <c r="F14">
-        <v>0.9315635630369886</v>
+        <v>0.9980160008302107</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.021477831609316</v>
+        <v>1.037108416634852</v>
       </c>
       <c r="J14">
-        <v>0.9727384983487264</v>
+        <v>0.9963836682814651</v>
       </c>
       <c r="K14">
-        <v>0.9873626338702095</v>
+        <v>1.011509460378732</v>
       </c>
       <c r="L14">
-        <v>0.9675992805423917</v>
+        <v>0.9894366143103802</v>
       </c>
       <c r="M14">
-        <v>0.9479216291478283</v>
+        <v>1.012992447832609</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9419782233102786</v>
+        <v>0.9667218227870128</v>
       </c>
       <c r="D15">
-        <v>0.9729173108565022</v>
+        <v>0.9975009917520562</v>
       </c>
       <c r="E15">
-        <v>0.9528853143027687</v>
+        <v>0.9750804184288454</v>
       </c>
       <c r="F15">
-        <v>0.933056444685859</v>
+        <v>0.9990865752369991</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.022002200164213</v>
+        <v>1.037592042460943</v>
       </c>
       <c r="J15">
-        <v>0.9738140133549854</v>
+        <v>0.997387748263223</v>
       </c>
       <c r="K15">
-        <v>0.9882938166112872</v>
+        <v>1.012397999431362</v>
       </c>
       <c r="L15">
-        <v>0.9686767847324671</v>
+        <v>0.9904134569047659</v>
       </c>
       <c r="M15">
-        <v>0.9492820798280719</v>
+        <v>1.013953714461044</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9496399778330741</v>
+        <v>0.9739007234166661</v>
       </c>
       <c r="D16">
-        <v>0.9788571032484676</v>
+        <v>1.003185743680319</v>
       </c>
       <c r="E16">
-        <v>0.9596958986917646</v>
+        <v>0.9813010757680198</v>
       </c>
       <c r="F16">
-        <v>0.9415357868979103</v>
+        <v>1.005193954231953</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.024975145331914</v>
+        <v>1.040343685571107</v>
       </c>
       <c r="J16">
-        <v>0.9799209215658666</v>
+        <v>1.003109284686059</v>
       </c>
       <c r="K16">
-        <v>0.9935810529041561</v>
+        <v>1.017461206400517</v>
       </c>
       <c r="L16">
-        <v>0.9747941419733661</v>
+        <v>0.995978658684827</v>
       </c>
       <c r="M16">
-        <v>0.9570073826215092</v>
+        <v>1.019433655174617</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9542896967956712</v>
+        <v>0.9782767772969297</v>
       </c>
       <c r="D17">
-        <v>0.9824654154839294</v>
+        <v>1.006654475122331</v>
       </c>
       <c r="E17">
-        <v>0.9638307611777964</v>
+        <v>0.9850947150375081</v>
       </c>
       <c r="F17">
-        <v>0.946681959098524</v>
+        <v>1.008921845528033</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.026774509499345</v>
+        <v>1.042016861772782</v>
       </c>
       <c r="J17">
-        <v>0.9836253176363653</v>
+        <v>1.006596124853117</v>
       </c>
       <c r="K17">
-        <v>0.9967880369411554</v>
+        <v>1.020546824701873</v>
       </c>
       <c r="L17">
-        <v>0.9785041496173987</v>
+        <v>0.9993692346071986</v>
       </c>
       <c r="M17">
-        <v>0.961694220209411</v>
+        <v>1.022775230172559</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9569493851789889</v>
+        <v>0.9807862429825863</v>
       </c>
       <c r="D18">
-        <v>0.9845305697562706</v>
+        <v>1.008644766536764</v>
       </c>
       <c r="E18">
-        <v>0.9661964800781808</v>
+        <v>0.987270727715809</v>
       </c>
       <c r="F18">
-        <v>0.9496258097664676</v>
+        <v>1.011061297900667</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.027801971262122</v>
+        <v>1.042974804881602</v>
       </c>
       <c r="J18">
-        <v>0.9857435994854435</v>
+        <v>1.008595303625808</v>
       </c>
       <c r="K18">
-        <v>0.9986217774166727</v>
+        <v>1.022315930008982</v>
       </c>
       <c r="L18">
-        <v>0.9806253837647677</v>
+        <v>1.001312863067813</v>
       </c>
       <c r="M18">
-        <v>0.9643746672678506</v>
+        <v>1.024691791936596</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9578477210789471</v>
+        <v>0.9816348561070197</v>
       </c>
       <c r="D19">
-        <v>0.9852282810389261</v>
+        <v>1.009317995330929</v>
       </c>
       <c r="E19">
-        <v>0.966995608797071</v>
+        <v>0.9880066626524482</v>
       </c>
       <c r="F19">
-        <v>0.9506201631495269</v>
+        <v>1.011785059350374</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.028148697490215</v>
+        <v>1.043298480291033</v>
       </c>
       <c r="J19">
-        <v>0.9864589515364021</v>
+        <v>1.009271288654214</v>
       </c>
       <c r="K19">
-        <v>0.9992410177604836</v>
+        <v>1.022914112077257</v>
       </c>
       <c r="L19">
-        <v>0.9813416897268948</v>
+        <v>1.001970004103374</v>
       </c>
       <c r="M19">
-        <v>0.9652799383184151</v>
+        <v>1.025339952030968</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9537963302103266</v>
+        <v>0.9778117766162243</v>
       </c>
       <c r="D20">
-        <v>0.9820824252337286</v>
+        <v>1.006285766312659</v>
       </c>
       <c r="E20">
-        <v>0.9633919670801246</v>
+        <v>0.9846915445252357</v>
       </c>
       <c r="F20">
-        <v>0.9461358979165547</v>
+        <v>1.008525541432605</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.026583770535564</v>
+        <v>1.041839229415316</v>
       </c>
       <c r="J20">
-        <v>0.9832323251084628</v>
+        <v>1.00622564884471</v>
       </c>
       <c r="K20">
-        <v>0.9964478243479781</v>
+        <v>1.020218981308076</v>
       </c>
       <c r="L20">
-        <v>0.9781105886113791</v>
+        <v>0.9990090238249451</v>
       </c>
       <c r="M20">
-        <v>0.9611969654279742</v>
+        <v>1.022420117915982</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9399810506531892</v>
+        <v>0.9648573033536667</v>
       </c>
       <c r="D21">
-        <v>0.971370272728026</v>
+        <v>0.9960257397496062</v>
       </c>
       <c r="E21">
-        <v>0.9511106254436041</v>
+        <v>0.9734653871726248</v>
       </c>
       <c r="F21">
-        <v>0.9308461637152511</v>
+        <v>0.9975020540110332</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.021225754213193</v>
+        <v>1.036876112035539</v>
       </c>
       <c r="J21">
-        <v>0.9722216345045502</v>
+        <v>0.9959015236951959</v>
       </c>
       <c r="K21">
-        <v>0.9869151311794407</v>
+        <v>1.011082798927155</v>
       </c>
       <c r="L21">
-        <v>0.9670814452817366</v>
+        <v>0.9889675284585216</v>
       </c>
       <c r="M21">
-        <v>0.9472678369724107</v>
+        <v>1.012530905785744</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9307316901069683</v>
+        <v>0.9562609346177542</v>
       </c>
       <c r="D22">
-        <v>0.9642128684820579</v>
+        <v>0.989230836263562</v>
       </c>
       <c r="E22">
-        <v>0.9428952097628402</v>
+        <v>0.9660228414196463</v>
       </c>
       <c r="F22">
-        <v>0.9206093212405189</v>
+        <v>0.9902059050361159</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.0176227005151</v>
+        <v>1.033569314003279</v>
       </c>
       <c r="J22">
-        <v>0.9648447673385419</v>
+        <v>0.9890485884179242</v>
       </c>
       <c r="K22">
-        <v>0.980528248880269</v>
+        <v>1.005018694312457</v>
       </c>
       <c r="L22">
-        <v>0.9596896514872092</v>
+        <v>0.9822988396942102</v>
       </c>
       <c r="M22">
-        <v>0.9379365650285416</v>
+        <v>1.005973914141364</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9356933825091565</v>
+        <v>0.9608642898675862</v>
       </c>
       <c r="D23">
-        <v>0.9680508432472735</v>
+        <v>0.9928681057589018</v>
       </c>
       <c r="E23">
-        <v>0.9473015075645338</v>
+        <v>0.9700075772636444</v>
       </c>
       <c r="F23">
-        <v>0.9261008822389164</v>
+        <v>0.994111079104514</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.019556913461165</v>
+        <v>1.035341280785735</v>
       </c>
       <c r="J23">
-        <v>0.9688024017064906</v>
+        <v>0.9927184474110272</v>
       </c>
       <c r="K23">
-        <v>0.9839547435395669</v>
+        <v>1.008266061459147</v>
       </c>
       <c r="L23">
-        <v>0.9636555374833476</v>
+        <v>0.9858703425468653</v>
       </c>
       <c r="M23">
-        <v>0.9429427908169086</v>
+        <v>1.00948456646811</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9540194223775745</v>
+        <v>0.978022022667549</v>
       </c>
       <c r="D24">
-        <v>0.9822556034709081</v>
+        <v>1.006452471323839</v>
       </c>
       <c r="E24">
-        <v>0.963590380830715</v>
+        <v>0.9848738329521673</v>
       </c>
       <c r="F24">
-        <v>0.9463828171050767</v>
+        <v>1.008704721721211</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.026670025124844</v>
+        <v>1.041919549181862</v>
       </c>
       <c r="J24">
-        <v>0.9834100319012179</v>
+        <v>1.006393157526287</v>
       </c>
       <c r="K24">
-        <v>0.9966016649891205</v>
+        <v>1.020367213997357</v>
       </c>
       <c r="L24">
-        <v>0.9782885532618714</v>
+        <v>0.9991718922534237</v>
       </c>
       <c r="M24">
-        <v>0.9614218172371141</v>
+        <v>1.022580677883223</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9732538206528235</v>
+        <v>0.9962644360654608</v>
       </c>
       <c r="D25">
-        <v>0.9972071952683401</v>
+        <v>1.020937625699265</v>
       </c>
       <c r="E25">
-        <v>0.9807062154518431</v>
+        <v>1.000699584077178</v>
       </c>
       <c r="F25">
-        <v>0.9676775508776199</v>
+        <v>1.024283495160336</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.03406784475753</v>
+        <v>1.048854790361146</v>
       </c>
       <c r="J25">
-        <v>0.9987160881586192</v>
+        <v>1.020918174163428</v>
       </c>
       <c r="K25">
-        <v>1.009849021195864</v>
+        <v>1.033219379712749</v>
       </c>
       <c r="L25">
-        <v>0.9936116134272022</v>
+        <v>1.013287049602709</v>
       </c>
       <c r="M25">
-        <v>0.9807992494717089</v>
+        <v>1.036516183959031</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_17/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_17/res_bus/vm_pu.xlsx
@@ -421,34 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.009728056559583</v>
+        <v>1.019379210512054</v>
       </c>
       <c r="D2">
-        <v>1.031651309645933</v>
+        <v>1.035225278481811</v>
       </c>
       <c r="E2">
-        <v>1.012388350949162</v>
+        <v>1.031609602055596</v>
       </c>
       <c r="F2">
-        <v>1.035819859174087</v>
+        <v>1.038899413448818</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.053921547737863</v>
+        <v>1.055733328380158</v>
       </c>
       <c r="J2">
-        <v>1.031621645887246</v>
+        <v>1.04099534887872</v>
       </c>
       <c r="K2">
-        <v>1.042686622814389</v>
+        <v>1.046214748905856</v>
       </c>
       <c r="L2">
-        <v>1.023677752707695</v>
+        <v>1.042645452545926</v>
       </c>
       <c r="M2">
-        <v>1.046801741349425</v>
+        <v>1.049842166777285</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.018974137114888</v>
+        <v>1.023650757082516</v>
       </c>
       <c r="D3">
-        <v>1.039018107072137</v>
+        <v>1.038463545636254</v>
       </c>
       <c r="E3">
-        <v>1.0204179310349</v>
+        <v>1.035226236626166</v>
       </c>
       <c r="F3">
-        <v>1.04376030511044</v>
+        <v>1.042971358604515</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.057369300032615</v>
+        <v>1.057274779177059</v>
       </c>
       <c r="J3">
-        <v>1.038960581021366</v>
+        <v>1.043516804728222</v>
       </c>
       <c r="K3">
-        <v>1.049174946395995</v>
+        <v>1.048626840864308</v>
       </c>
       <c r="L3">
-        <v>1.030796059678708</v>
+        <v>1.04542738968213</v>
       </c>
       <c r="M3">
-        <v>1.053862284312472</v>
+        <v>1.05308242200666</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.024739179133853</v>
+        <v>1.026360812945862</v>
       </c>
       <c r="D4">
-        <v>1.043614525284028</v>
+        <v>1.040519939795512</v>
       </c>
       <c r="E4">
-        <v>1.025424841021329</v>
+        <v>1.037526352053638</v>
       </c>
       <c r="F4">
-        <v>1.048718336115482</v>
+        <v>1.045561056106136</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.059503737642197</v>
+        <v>1.058242888670558</v>
       </c>
       <c r="J4">
-        <v>1.043530547633803</v>
+        <v>1.045113425878683</v>
       </c>
       <c r="K4">
-        <v>1.05321358501192</v>
+        <v>1.050152735889938</v>
       </c>
       <c r="L4">
-        <v>1.035225797053879</v>
+        <v>1.047192018763274</v>
       </c>
       <c r="M4">
-        <v>1.058262288484404</v>
+        <v>1.055139020738625</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.027114236986113</v>
+        <v>1.027487639110382</v>
       </c>
       <c r="D5">
-        <v>1.045508739529367</v>
+        <v>1.041375388732415</v>
       </c>
       <c r="E5">
-        <v>1.027487560272904</v>
+        <v>1.038484028272477</v>
       </c>
       <c r="F5">
-        <v>1.050762461777771</v>
+        <v>1.046639315625159</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.060379328564049</v>
+        <v>1.058643023192149</v>
       </c>
       <c r="J5">
-        <v>1.045411758875384</v>
+        <v>1.045776518485756</v>
       </c>
       <c r="K5">
-        <v>1.05487564320724</v>
+        <v>1.050786093078345</v>
       </c>
       <c r="L5">
-        <v>1.037048602362447</v>
+        <v>1.047925625924877</v>
       </c>
       <c r="M5">
-        <v>1.060074299852275</v>
+        <v>1.05599431238058</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.027510268592735</v>
+        <v>1.027676118326661</v>
       </c>
       <c r="D6">
-        <v>1.045824623586012</v>
+        <v>1.041518498850034</v>
       </c>
       <c r="E6">
-        <v>1.027831507653816</v>
+        <v>1.038644290037006</v>
       </c>
       <c r="F6">
-        <v>1.051103397796614</v>
+        <v>1.046819757370795</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.0605251073215</v>
+        <v>1.058709809816083</v>
       </c>
       <c r="J6">
-        <v>1.045725352852605</v>
+        <v>1.045887384723906</v>
       </c>
       <c r="K6">
-        <v>1.055152678266799</v>
+        <v>1.050891966153869</v>
       </c>
       <c r="L6">
-        <v>1.037352420161966</v>
+        <v>1.048048325450327</v>
       </c>
       <c r="M6">
-        <v>1.060376401985333</v>
+        <v>1.056137382262456</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.024771101162458</v>
+        <v>1.0263759181433</v>
       </c>
       <c r="D7">
-        <v>1.043639982327916</v>
+        <v>1.040531405588999</v>
       </c>
       <c r="E7">
-        <v>1.025452565199969</v>
+        <v>1.037539184687721</v>
       </c>
       <c r="F7">
-        <v>1.048745804349789</v>
+        <v>1.045575504464137</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.05951552099365</v>
+        <v>1.058248262032321</v>
       </c>
       <c r="J7">
-        <v>1.043555838164244</v>
+        <v>1.045122317783556</v>
       </c>
       <c r="K7">
-        <v>1.053235931071312</v>
+        <v>1.050161230492134</v>
       </c>
       <c r="L7">
-        <v>1.035250305088026</v>
+        <v>1.047201853325224</v>
       </c>
       <c r="M7">
-        <v>1.058286645739994</v>
+        <v>1.055150485366189</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.012900185361893</v>
+        <v>1.020834227982177</v>
       </c>
       <c r="D8">
-        <v>1.034177935693508</v>
+        <v>1.036327905693763</v>
       </c>
       <c r="E8">
-        <v>1.015142984041834</v>
+        <v>1.032840349401628</v>
       </c>
       <c r="F8">
-        <v>1.038542451001446</v>
+        <v>1.040285107267786</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.055107584721864</v>
+        <v>1.056260436166753</v>
       </c>
       <c r="J8">
-        <v>1.034140685618966</v>
+        <v>1.041854864196977</v>
       </c>
       <c r="K8">
-        <v>1.044914022126743</v>
+        <v>1.047037288797203</v>
       </c>
       <c r="L8">
-        <v>1.026121667609258</v>
+        <v>1.043593119007317</v>
       </c>
       <c r="M8">
-        <v>1.049224472586189</v>
+        <v>1.0509456995777</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9901298103473718</v>
+        <v>1.010635847094222</v>
       </c>
       <c r="D9">
-        <v>1.01606214953533</v>
+        <v>1.028609344746044</v>
       </c>
       <c r="E9">
-        <v>0.9953758122506575</v>
+        <v>1.024238951525501</v>
       </c>
       <c r="F9">
-        <v>1.019037701714292</v>
+        <v>1.030600463744458</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.046530606434981</v>
+        <v>1.05252561120506</v>
       </c>
       <c r="J9">
-        <v>1.016035990472962</v>
+        <v>1.035818536748204</v>
       </c>
       <c r="K9">
-        <v>1.028899895969911</v>
+        <v>1.041254702635119</v>
       </c>
       <c r="L9">
-        <v>1.008544361868941</v>
+        <v>1.036950639276301</v>
       </c>
       <c r="M9">
-        <v>1.031829276163754</v>
+        <v>1.043215839683871</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9734001722719361</v>
+        <v>1.003515649946374</v>
       </c>
       <c r="D10">
-        <v>1.002789139808594</v>
+        <v>1.023235155543224</v>
       </c>
       <c r="E10">
-        <v>0.9808672227052513</v>
+        <v>1.018267265573737</v>
       </c>
       <c r="F10">
-        <v>1.004767782086762</v>
+        <v>1.02387578245335</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.040152092055699</v>
+        <v>1.049868574957658</v>
       </c>
       <c r="J10">
-        <v>1.002710399720758</v>
+        <v>1.031590473595643</v>
       </c>
       <c r="K10">
-        <v>1.017108217420865</v>
+        <v>1.037197193070002</v>
       </c>
       <c r="L10">
-        <v>0.9955907370331072</v>
+        <v>1.032314350075506</v>
       </c>
       <c r="M10">
-        <v>1.019051483057993</v>
+        <v>1.037826930429612</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9657032222329527</v>
+        <v>1.000349098913015</v>
       </c>
       <c r="D11">
-        <v>0.996694987845067</v>
+        <v>1.020849304759385</v>
       </c>
       <c r="E11">
-        <v>0.9741980825168195</v>
+        <v>1.015620041595891</v>
       </c>
       <c r="F11">
-        <v>0.99822085188468</v>
+        <v>1.020894379614026</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.037200985764336</v>
+        <v>1.048675717935015</v>
       </c>
       <c r="J11">
-        <v>0.9965758218884554</v>
+        <v>1.029707362170252</v>
       </c>
       <c r="K11">
-        <v>1.011679502164734</v>
+        <v>1.035388460979282</v>
       </c>
       <c r="L11">
-        <v>0.9896235598485267</v>
+        <v>1.030253278585541</v>
       </c>
       <c r="M11">
-        <v>1.013176398509069</v>
+        <v>1.035432730323209</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9627672185609187</v>
+        <v>0.9991597003419578</v>
       </c>
       <c r="D12">
-        <v>0.9943726242813373</v>
+        <v>1.019953843091699</v>
       </c>
       <c r="E12">
-        <v>0.9716552900297198</v>
+        <v>1.014627047396903</v>
       </c>
       <c r="F12">
-        <v>0.9957266871398465</v>
+        <v>1.019775961390178</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.036072993406642</v>
+        <v>1.048226030372962</v>
       </c>
       <c r="J12">
-        <v>0.9942354201611237</v>
+        <v>1.028999665783685</v>
       </c>
       <c r="K12">
-        <v>1.009608435930059</v>
+        <v>1.034708489914621</v>
       </c>
       <c r="L12">
-        <v>0.9873464511967875</v>
+        <v>1.029479280944352</v>
       </c>
       <c r="M12">
-        <v>1.010936217585899</v>
+        <v>1.034533845588927</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.963400649277628</v>
+        <v>0.9994154388342794</v>
       </c>
       <c r="D13">
-        <v>0.9948735564285348</v>
+        <v>1.020146348259957</v>
       </c>
       <c r="E13">
-        <v>0.9722038304442531</v>
+        <v>1.014840494655774</v>
       </c>
       <c r="F13">
-        <v>0.9962646431101025</v>
+        <v>1.020016372378741</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.036316453142168</v>
+        <v>1.048322793000831</v>
       </c>
       <c r="J13">
-        <v>0.994740365106956</v>
+        <v>1.029151847338841</v>
       </c>
       <c r="K13">
-        <v>1.010055267964737</v>
+        <v>1.034854719575808</v>
       </c>
       <c r="L13">
-        <v>0.9878377662425352</v>
+        <v>1.029645693669043</v>
       </c>
       <c r="M13">
-        <v>1.011419482505113</v>
+        <v>1.034727099997945</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9654621603397371</v>
+        <v>1.000251056124317</v>
       </c>
       <c r="D14">
-        <v>0.9965042612101747</v>
+        <v>1.020775476833418</v>
       </c>
       <c r="E14">
-        <v>0.9739892804411328</v>
+        <v>1.015538161006811</v>
       </c>
       <c r="F14">
-        <v>0.9980160008302107</v>
+        <v>1.020802158301705</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.037108416634852</v>
+        <v>1.048638682886381</v>
       </c>
       <c r="J14">
-        <v>0.9963836682814651</v>
+        <v>1.029649033732335</v>
       </c>
       <c r="K14">
-        <v>1.011509460378732</v>
+        <v>1.035332422226316</v>
       </c>
       <c r="L14">
-        <v>0.9894366143103802</v>
+        <v>1.030189473839446</v>
       </c>
       <c r="M14">
-        <v>1.012992447832609</v>
+        <v>1.035358626160132</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9667218227870128</v>
+        <v>1.000764137783571</v>
       </c>
       <c r="D15">
-        <v>0.9975009917520562</v>
+        <v>1.021161864997709</v>
       </c>
       <c r="E15">
-        <v>0.9750804184288454</v>
+        <v>1.015966716845184</v>
       </c>
       <c r="F15">
-        <v>0.9990865752369991</v>
+        <v>1.021284833601925</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.037592042460943</v>
+        <v>1.048832429911326</v>
       </c>
       <c r="J15">
-        <v>0.997387748263223</v>
+        <v>1.029954265550257</v>
       </c>
       <c r="K15">
-        <v>1.012397999431362</v>
+        <v>1.03562566295386</v>
       </c>
       <c r="L15">
-        <v>0.9904134569047659</v>
+        <v>1.030523386660872</v>
       </c>
       <c r="M15">
-        <v>1.013953714461044</v>
+        <v>1.035746448144135</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9739007234166661</v>
+        <v>1.003723989627695</v>
       </c>
       <c r="D16">
-        <v>1.003185743680319</v>
+        <v>1.023392222873722</v>
       </c>
       <c r="E16">
-        <v>0.9813010757680198</v>
+        <v>1.018441619430572</v>
       </c>
       <c r="F16">
-        <v>1.005193954231953</v>
+        <v>1.024072137216548</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.040343685571107</v>
+        <v>1.049946828210959</v>
       </c>
       <c r="J16">
-        <v>1.003109284686059</v>
+        <v>1.031714316493622</v>
       </c>
       <c r="K16">
-        <v>1.017461206400517</v>
+        <v>1.037316112309728</v>
       </c>
       <c r="L16">
-        <v>0.995978658684827</v>
+        <v>1.03244997677979</v>
       </c>
       <c r="M16">
-        <v>1.019433655174617</v>
+        <v>1.03798450816705</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9782767772969297</v>
+        <v>1.005557828513073</v>
       </c>
       <c r="D17">
-        <v>1.006654475122331</v>
+        <v>1.024775240550349</v>
       </c>
       <c r="E17">
-        <v>0.9850947150375081</v>
+        <v>1.019977290067829</v>
       </c>
       <c r="F17">
-        <v>1.008921845528033</v>
+        <v>1.025801542111548</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.042016861772782</v>
+        <v>1.050634355813471</v>
       </c>
       <c r="J17">
-        <v>1.006596124853117</v>
+        <v>1.032804090344909</v>
       </c>
       <c r="K17">
-        <v>1.020546824701873</v>
+        <v>1.038362380821797</v>
       </c>
       <c r="L17">
-        <v>0.9993692346071986</v>
+        <v>1.033643882834383</v>
       </c>
       <c r="M17">
-        <v>1.022775230172559</v>
+        <v>1.039371811254461</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9807862429825863</v>
+        <v>1.006619470096157</v>
       </c>
       <c r="D18">
-        <v>1.008644766536764</v>
+        <v>1.025576288407512</v>
       </c>
       <c r="E18">
-        <v>0.987270727715809</v>
+        <v>1.020867125238095</v>
       </c>
       <c r="F18">
-        <v>1.011061297900667</v>
+        <v>1.026803600322179</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.042974804881602</v>
+        <v>1.051031310987044</v>
       </c>
       <c r="J18">
-        <v>1.008595303625808</v>
+        <v>1.033434713391249</v>
       </c>
       <c r="K18">
-        <v>1.022315930008982</v>
+        <v>1.038967677644074</v>
       </c>
       <c r="L18">
-        <v>1.001312863067813</v>
+        <v>1.034335130443081</v>
       </c>
       <c r="M18">
-        <v>1.024691791936596</v>
+        <v>1.040175169897937</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9816348561070197</v>
+        <v>1.006980123939633</v>
       </c>
       <c r="D19">
-        <v>1.009317995330929</v>
+        <v>1.025848480141116</v>
       </c>
       <c r="E19">
-        <v>0.9880066626524482</v>
+        <v>1.021169549726845</v>
       </c>
       <c r="F19">
-        <v>1.011785059350374</v>
+        <v>1.027144160030281</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.043298480291033</v>
+        <v>1.051165979639513</v>
       </c>
       <c r="J19">
-        <v>1.009271288654214</v>
+        <v>1.033648898096607</v>
       </c>
       <c r="K19">
-        <v>1.022914112077257</v>
+        <v>1.039173234662383</v>
       </c>
       <c r="L19">
-        <v>1.001970004103374</v>
+        <v>1.034569967794326</v>
       </c>
       <c r="M19">
-        <v>1.025339952030968</v>
+        <v>1.040448118251232</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9778117766162243</v>
+        <v>1.005361907658548</v>
       </c>
       <c r="D20">
-        <v>1.006285766312659</v>
+        <v>1.024627442455497</v>
       </c>
       <c r="E20">
-        <v>0.9846915445252357</v>
+        <v>1.019813140219404</v>
       </c>
       <c r="F20">
-        <v>1.008525541432605</v>
+        <v>1.025616687493883</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.041839229415316</v>
+        <v>1.050561013111934</v>
       </c>
       <c r="J20">
-        <v>1.00622564884471</v>
+        <v>1.032687690086081</v>
       </c>
       <c r="K20">
-        <v>1.020218981308076</v>
+        <v>1.038250643006083</v>
       </c>
       <c r="L20">
-        <v>0.9990090238249451</v>
+        <v>1.033516322102878</v>
       </c>
       <c r="M20">
-        <v>1.022420117915982</v>
+        <v>1.039223573080831</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9648573033536667</v>
+        <v>1.000005357594314</v>
       </c>
       <c r="D21">
-        <v>0.9960257397496062</v>
+        <v>1.020590472994457</v>
       </c>
       <c r="E21">
-        <v>0.9734653871726248</v>
+        <v>1.015332987240044</v>
       </c>
       <c r="F21">
-        <v>0.9975020540110332</v>
+        <v>1.020571071888675</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.036876112035539</v>
+        <v>1.048545845638018</v>
       </c>
       <c r="J21">
-        <v>0.9959015236951959</v>
+        <v>1.029502854810869</v>
       </c>
       <c r="K21">
-        <v>1.011082798927155</v>
+        <v>1.035191977937383</v>
       </c>
       <c r="L21">
-        <v>0.9889675284585216</v>
+        <v>1.030029579864832</v>
       </c>
       <c r="M21">
-        <v>1.012530905785744</v>
+        <v>1.035172925382899</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9562609346177542</v>
+        <v>0.9965607474606084</v>
       </c>
       <c r="D22">
-        <v>0.989230836263562</v>
+        <v>1.01799852334661</v>
       </c>
       <c r="E22">
-        <v>0.9660228414196463</v>
+        <v>1.012459778780421</v>
       </c>
       <c r="F22">
-        <v>0.9902059050361159</v>
+        <v>1.017334801171665</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.033569314003279</v>
+        <v>1.047240468219916</v>
       </c>
       <c r="J22">
-        <v>0.9890485884179242</v>
+        <v>1.027452638416644</v>
       </c>
       <c r="K22">
-        <v>1.005018694312457</v>
+        <v>1.033221663941158</v>
       </c>
       <c r="L22">
-        <v>0.9822988396942102</v>
+        <v>1.027788381116366</v>
       </c>
       <c r="M22">
-        <v>1.005973914141364</v>
+        <v>1.032570500358649</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9608642898675862</v>
+        <v>0.9983943066447811</v>
       </c>
       <c r="D23">
-        <v>0.9928681057589018</v>
+        <v>1.019377805942147</v>
       </c>
       <c r="E23">
-        <v>0.9700075772636444</v>
+        <v>1.013988426489618</v>
       </c>
       <c r="F23">
-        <v>0.994111079104514</v>
+        <v>1.019056655181515</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.035341280785735</v>
+        <v>1.047936196034964</v>
       </c>
       <c r="J23">
-        <v>0.9927184474110272</v>
+        <v>1.028544153603753</v>
       </c>
       <c r="K23">
-        <v>1.008266061459147</v>
+        <v>1.034270760536832</v>
       </c>
       <c r="L23">
-        <v>0.9858703425468653</v>
+        <v>1.028981256483974</v>
       </c>
       <c r="M23">
-        <v>1.00948456646811</v>
+        <v>1.033955522737876</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.978022022667549</v>
+        <v>1.00545046055106</v>
       </c>
       <c r="D24">
-        <v>1.006452471323839</v>
+        <v>1.02469424346104</v>
       </c>
       <c r="E24">
-        <v>0.9848738329521673</v>
+        <v>1.019887330655595</v>
       </c>
       <c r="F24">
-        <v>1.008704721721211</v>
+        <v>1.025700235925622</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.041919549181862</v>
+        <v>1.050594166075358</v>
       </c>
       <c r="J24">
-        <v>1.006393157526287</v>
+        <v>1.032740301850853</v>
       </c>
       <c r="K24">
-        <v>1.020367213997357</v>
+        <v>1.038301147861224</v>
       </c>
       <c r="L24">
-        <v>0.9991718922534237</v>
+        <v>1.033573977155785</v>
       </c>
       <c r="M24">
-        <v>1.022580677883223</v>
+        <v>1.039290573520642</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9962644360654608</v>
+        <v>1.013326688093059</v>
       </c>
       <c r="D25">
-        <v>1.020937625699265</v>
+        <v>1.030643582409687</v>
       </c>
       <c r="E25">
-        <v>1.000699584077178</v>
+        <v>1.026502828826062</v>
       </c>
       <c r="F25">
-        <v>1.024283495160336</v>
+        <v>1.03314956054519</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.048854790361146</v>
+        <v>1.053519755548514</v>
       </c>
       <c r="J25">
-        <v>1.020918174163428</v>
+        <v>1.037413731482774</v>
       </c>
       <c r="K25">
-        <v>1.033219379712749</v>
+        <v>1.042784116791576</v>
       </c>
       <c r="L25">
-        <v>1.013287049602709</v>
+        <v>1.038703196137828</v>
       </c>
       <c r="M25">
-        <v>1.036516183959031</v>
+        <v>1.04525417898093</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_17/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_17/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.019379210512054</v>
+        <v>1.042583576362612</v>
       </c>
       <c r="D2">
-        <v>1.035225278481811</v>
+        <v>1.04621432663889</v>
       </c>
       <c r="E2">
-        <v>1.031609602055596</v>
+        <v>1.050249189732453</v>
       </c>
       <c r="F2">
-        <v>1.038899413448818</v>
+        <v>1.060013728620032</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.055733328380158</v>
+        <v>1.045043220182748</v>
       </c>
       <c r="J2">
-        <v>1.04099534887872</v>
+        <v>1.047658616253984</v>
       </c>
       <c r="K2">
-        <v>1.046214748905856</v>
+        <v>1.048980389635455</v>
       </c>
       <c r="L2">
-        <v>1.042645452545926</v>
+        <v>1.053003992029428</v>
       </c>
       <c r="M2">
-        <v>1.049842166777285</v>
+        <v>1.062741663782414</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.023650757082516</v>
+        <v>1.043482668522082</v>
       </c>
       <c r="D3">
-        <v>1.038463545636254</v>
+        <v>1.046910058106103</v>
       </c>
       <c r="E3">
-        <v>1.035226236626166</v>
+        <v>1.051061187548894</v>
       </c>
       <c r="F3">
-        <v>1.042971358604515</v>
+        <v>1.060936333509081</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.057274779177059</v>
+        <v>1.045306150462784</v>
       </c>
       <c r="J3">
-        <v>1.043516804728222</v>
+        <v>1.048204456751718</v>
       </c>
       <c r="K3">
-        <v>1.048626840864308</v>
+        <v>1.049488019752258</v>
       </c>
       <c r="L3">
-        <v>1.04542738968213</v>
+        <v>1.053628399485885</v>
       </c>
       <c r="M3">
-        <v>1.05308242200666</v>
+        <v>1.063478337353851</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.026360812945862</v>
+        <v>1.044064908164322</v>
       </c>
       <c r="D4">
-        <v>1.040519939795512</v>
+        <v>1.047360543556814</v>
       </c>
       <c r="E4">
-        <v>1.037526352053638</v>
+        <v>1.05158741108993</v>
       </c>
       <c r="F4">
-        <v>1.045561056106136</v>
+        <v>1.061534299556387</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.058242888670558</v>
+        <v>1.045475204905993</v>
       </c>
       <c r="J4">
-        <v>1.045113425878683</v>
+        <v>1.048557468687856</v>
       </c>
       <c r="K4">
-        <v>1.050152735889938</v>
+        <v>1.049816114064151</v>
       </c>
       <c r="L4">
-        <v>1.047192018763274</v>
+        <v>1.05403258557085</v>
       </c>
       <c r="M4">
-        <v>1.055139020738625</v>
+        <v>1.063955360593249</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.027487639110382</v>
+        <v>1.044309792222398</v>
       </c>
       <c r="D5">
-        <v>1.041375388732415</v>
+        <v>1.047549998107094</v>
       </c>
       <c r="E5">
-        <v>1.038484028272477</v>
+        <v>1.051808827043239</v>
       </c>
       <c r="F5">
-        <v>1.046639315625159</v>
+        <v>1.061785917271145</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.058643023192149</v>
+        <v>1.045546016370767</v>
       </c>
       <c r="J5">
-        <v>1.045776518485756</v>
+        <v>1.048705829920034</v>
       </c>
       <c r="K5">
-        <v>1.050786093078345</v>
+        <v>1.049953953708489</v>
       </c>
       <c r="L5">
-        <v>1.047925625924877</v>
+        <v>1.054202540741627</v>
       </c>
       <c r="M5">
-        <v>1.05599431238058</v>
+        <v>1.064155982676811</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.027676118326661</v>
+        <v>1.044350915777162</v>
       </c>
       <c r="D6">
-        <v>1.041518498850034</v>
+        <v>1.047581812447899</v>
       </c>
       <c r="E6">
-        <v>1.038644290037006</v>
+        <v>1.051846014945498</v>
       </c>
       <c r="F6">
-        <v>1.046819757370795</v>
+        <v>1.061828178597435</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.058709809816083</v>
+        <v>1.045557890717696</v>
       </c>
       <c r="J6">
-        <v>1.045887384723906</v>
+        <v>1.048730737754148</v>
       </c>
       <c r="K6">
-        <v>1.050891966153869</v>
+        <v>1.049977092210681</v>
       </c>
       <c r="L6">
-        <v>1.048048325450327</v>
+        <v>1.054231078999644</v>
       </c>
       <c r="M6">
-        <v>1.056137382262456</v>
+        <v>1.064189672747852</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.0263759181433</v>
+        <v>1.044068179884426</v>
       </c>
       <c r="D7">
-        <v>1.040531405588999</v>
+        <v>1.047363074782802</v>
       </c>
       <c r="E7">
-        <v>1.037539184687721</v>
+        <v>1.051590368909899</v>
       </c>
       <c r="F7">
-        <v>1.045575504464137</v>
+        <v>1.061537660771891</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.058248262032321</v>
+        <v>1.045476152110909</v>
       </c>
       <c r="J7">
-        <v>1.045122317783556</v>
+        <v>1.048559451276026</v>
       </c>
       <c r="K7">
-        <v>1.050161230492134</v>
+        <v>1.04981795624399</v>
       </c>
       <c r="L7">
-        <v>1.047201853325224</v>
+        <v>1.054034856382821</v>
       </c>
       <c r="M7">
-        <v>1.055150485366189</v>
+        <v>1.063958040996761</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.020834227982177</v>
+        <v>1.042887331333457</v>
       </c>
       <c r="D8">
-        <v>1.036327905693763</v>
+        <v>1.046449389180143</v>
       </c>
       <c r="E8">
-        <v>1.032840349401628</v>
+        <v>1.050523440247473</v>
       </c>
       <c r="F8">
-        <v>1.040285107267786</v>
+        <v>1.060325323602525</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.056260436166753</v>
+        <v>1.045132301700033</v>
       </c>
       <c r="J8">
-        <v>1.041854864196977</v>
+        <v>1.047843122918551</v>
       </c>
       <c r="K8">
-        <v>1.047037288797203</v>
+        <v>1.049152022859911</v>
       </c>
       <c r="L8">
-        <v>1.043593119007317</v>
+        <v>1.053214981101254</v>
       </c>
       <c r="M8">
-        <v>1.0509456995777</v>
+        <v>1.06299055356707</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.010635847094222</v>
+        <v>1.040810157012517</v>
       </c>
       <c r="D9">
-        <v>1.028609344746044</v>
+        <v>1.044841728025698</v>
       </c>
       <c r="E9">
-        <v>1.024238951525501</v>
+        <v>1.048649621639499</v>
       </c>
       <c r="F9">
-        <v>1.030600463744458</v>
+        <v>1.058196598536248</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.05252561120506</v>
+        <v>1.044518160277453</v>
       </c>
       <c r="J9">
-        <v>1.035818536748204</v>
+        <v>1.04657950452758</v>
       </c>
       <c r="K9">
-        <v>1.041254702635119</v>
+        <v>1.047975730173234</v>
       </c>
       <c r="L9">
-        <v>1.036950639276301</v>
+        <v>1.05177147947163</v>
       </c>
       <c r="M9">
-        <v>1.043215839683871</v>
+        <v>1.061288428620516</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.003515649946374</v>
+        <v>1.039427890323044</v>
       </c>
       <c r="D10">
-        <v>1.023235155543224</v>
+        <v>1.043771636894353</v>
       </c>
       <c r="E10">
-        <v>1.018267265573737</v>
+        <v>1.047404699969162</v>
       </c>
       <c r="F10">
-        <v>1.02387578245335</v>
+        <v>1.056782630626254</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.049868574957658</v>
+        <v>1.04410323872137</v>
       </c>
       <c r="J10">
-        <v>1.031590473595643</v>
+        <v>1.045736244723695</v>
       </c>
       <c r="K10">
-        <v>1.037197193070002</v>
+        <v>1.047189696206422</v>
       </c>
       <c r="L10">
-        <v>1.032314350075506</v>
+        <v>1.050810039722144</v>
       </c>
       <c r="M10">
-        <v>1.037826930429612</v>
+        <v>1.060155582427223</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>1.000349098913015</v>
+        <v>1.038829965811558</v>
       </c>
       <c r="D11">
-        <v>1.020849304759385</v>
+        <v>1.043308693622597</v>
       </c>
       <c r="E11">
-        <v>1.015620041595891</v>
+        <v>1.046866671976005</v>
       </c>
       <c r="F11">
-        <v>1.020894379614026</v>
+        <v>1.056171615685093</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.048675717935015</v>
+        <v>1.043922278655166</v>
       </c>
       <c r="J11">
-        <v>1.029707362170252</v>
+        <v>1.045370916319928</v>
       </c>
       <c r="K11">
-        <v>1.035388460979282</v>
+        <v>1.046848912434374</v>
       </c>
       <c r="L11">
-        <v>1.030253278585541</v>
+        <v>1.050393952983269</v>
       </c>
       <c r="M11">
-        <v>1.035432730323209</v>
+        <v>1.059665515935599</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9991597003419578</v>
+        <v>1.038607962289305</v>
       </c>
       <c r="D12">
-        <v>1.019953843091699</v>
+        <v>1.043136799469529</v>
       </c>
       <c r="E12">
-        <v>1.014627047396903</v>
+        <v>1.046666980897543</v>
       </c>
       <c r="F12">
-        <v>1.019775961390178</v>
+        <v>1.055944845769728</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.048226030372962</v>
+        <v>1.043854867942811</v>
       </c>
       <c r="J12">
-        <v>1.028999665783685</v>
+        <v>1.045235189396136</v>
       </c>
       <c r="K12">
-        <v>1.034708489914621</v>
+        <v>1.046722267270469</v>
       </c>
       <c r="L12">
-        <v>1.029479280944352</v>
+        <v>1.050239434545498</v>
       </c>
       <c r="M12">
-        <v>1.034533845588927</v>
+        <v>1.059483554378921</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9994154388342794</v>
+        <v>1.038655578603891</v>
       </c>
       <c r="D13">
-        <v>1.020146348259957</v>
+        <v>1.043173668447118</v>
       </c>
       <c r="E13">
-        <v>1.014840494655774</v>
+        <v>1.046709808206371</v>
       </c>
       <c r="F13">
-        <v>1.020016372378741</v>
+        <v>1.055993480142944</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.048322793000831</v>
+        <v>1.043869336541534</v>
       </c>
       <c r="J13">
-        <v>1.029151847338841</v>
+        <v>1.045264304517971</v>
       </c>
       <c r="K13">
-        <v>1.034854719575808</v>
+        <v>1.046749435916843</v>
       </c>
       <c r="L13">
-        <v>1.029645693669043</v>
+        <v>1.050272577685293</v>
       </c>
       <c r="M13">
-        <v>1.034727099997945</v>
+        <v>1.05952258251796</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>1.000251056124317</v>
+        <v>1.038811613042007</v>
       </c>
       <c r="D14">
-        <v>1.020775476833418</v>
+        <v>1.043294483492356</v>
       </c>
       <c r="E14">
-        <v>1.015538161006811</v>
+        <v>1.046850162248286</v>
       </c>
       <c r="F14">
-        <v>1.020802158301705</v>
+        <v>1.056152866964049</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.048638682886381</v>
+        <v>1.043916710420094</v>
       </c>
       <c r="J14">
-        <v>1.029649033732335</v>
+        <v>1.045359697648774</v>
       </c>
       <c r="K14">
-        <v>1.035332422226316</v>
+        <v>1.046838445182429</v>
       </c>
       <c r="L14">
-        <v>1.030189473839446</v>
+        <v>1.050381179726135</v>
       </c>
       <c r="M14">
-        <v>1.035358626160132</v>
+        <v>1.059650473481273</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.000764137783571</v>
+        <v>1.038907763271138</v>
       </c>
       <c r="D15">
-        <v>1.021161864997709</v>
+        <v>1.043368930100487</v>
       </c>
       <c r="E15">
-        <v>1.015966716845184</v>
+        <v>1.046936659785913</v>
       </c>
       <c r="F15">
-        <v>1.021284833601925</v>
+        <v>1.056251095435427</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.048832429911326</v>
+        <v>1.043945873331855</v>
       </c>
       <c r="J15">
-        <v>1.029954265550257</v>
+        <v>1.045418468867749</v>
       </c>
       <c r="K15">
-        <v>1.03562566295386</v>
+        <v>1.046893278426585</v>
       </c>
       <c r="L15">
-        <v>1.030523386660872</v>
+        <v>1.05044809766218</v>
       </c>
       <c r="M15">
-        <v>1.035746448144135</v>
+        <v>1.059729280767508</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.003723989627695</v>
+        <v>1.039467585476067</v>
       </c>
       <c r="D16">
-        <v>1.023392222873722</v>
+        <v>1.043802369749776</v>
       </c>
       <c r="E16">
-        <v>1.018441619430572</v>
+        <v>1.047440428974294</v>
       </c>
       <c r="F16">
-        <v>1.024072137216548</v>
+        <v>1.056823207987349</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.049946828210959</v>
+        <v>1.044115221190441</v>
       </c>
       <c r="J16">
-        <v>1.031714316493622</v>
+        <v>1.045760486425632</v>
       </c>
       <c r="K16">
-        <v>1.037316112309728</v>
+        <v>1.047212304022936</v>
       </c>
       <c r="L16">
-        <v>1.03244997677979</v>
+        <v>1.050837658829566</v>
       </c>
       <c r="M16">
-        <v>1.03798450816705</v>
+        <v>1.060188116403634</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.005557828513073</v>
+        <v>1.039818910271734</v>
       </c>
       <c r="D17">
-        <v>1.024775240550349</v>
+        <v>1.044074366691559</v>
       </c>
       <c r="E17">
-        <v>1.019977290067829</v>
+        <v>1.047756707267905</v>
       </c>
       <c r="F17">
-        <v>1.025801542111548</v>
+        <v>1.057182412834019</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.050634355813471</v>
+        <v>1.044221102043436</v>
       </c>
       <c r="J17">
-        <v>1.032804090344909</v>
+        <v>1.045974974522639</v>
       </c>
       <c r="K17">
-        <v>1.038362380821797</v>
+        <v>1.047412307097723</v>
       </c>
       <c r="L17">
-        <v>1.033643882834383</v>
+        <v>1.051082080810931</v>
       </c>
       <c r="M17">
-        <v>1.039371811254461</v>
+        <v>1.060476056882982</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.006619470096157</v>
+        <v>1.040023890478558</v>
       </c>
       <c r="D18">
-        <v>1.025576288407512</v>
+        <v>1.044233057677641</v>
       </c>
       <c r="E18">
-        <v>1.020867125238095</v>
+        <v>1.047941286448838</v>
       </c>
       <c r="F18">
-        <v>1.026803600322179</v>
+        <v>1.05739205072127</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.051031310987044</v>
+        <v>1.044282735435164</v>
       </c>
       <c r="J18">
-        <v>1.033434713391249</v>
+        <v>1.046100063267775</v>
       </c>
       <c r="K18">
-        <v>1.038967677644074</v>
+        <v>1.047528924343622</v>
       </c>
       <c r="L18">
-        <v>1.034335130443081</v>
+        <v>1.051224669454941</v>
       </c>
       <c r="M18">
-        <v>1.040175169897937</v>
+        <v>1.060644052313079</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.006980123939633</v>
+        <v>1.040093793300506</v>
       </c>
       <c r="D19">
-        <v>1.025848480141116</v>
+        <v>1.044287173903144</v>
       </c>
       <c r="E19">
-        <v>1.021169549726845</v>
+        <v>1.048004239993497</v>
       </c>
       <c r="F19">
-        <v>1.027144160030281</v>
+        <v>1.057463552091932</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.051165979639513</v>
+        <v>1.044303729586471</v>
       </c>
       <c r="J19">
-        <v>1.033648898096607</v>
+        <v>1.046142712121568</v>
       </c>
       <c r="K19">
-        <v>1.039173234662383</v>
+        <v>1.047568680795692</v>
       </c>
       <c r="L19">
-        <v>1.034569967794326</v>
+        <v>1.051273292097493</v>
       </c>
       <c r="M19">
-        <v>1.040448118251232</v>
+        <v>1.060701341940939</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.005361907658548</v>
+        <v>1.039781210397011</v>
       </c>
       <c r="D20">
-        <v>1.024627442455497</v>
+        <v>1.044045179869207</v>
       </c>
       <c r="E20">
-        <v>1.019813140219404</v>
+        <v>1.047722763307412</v>
       </c>
       <c r="F20">
-        <v>1.025616687493883</v>
+        <v>1.057143861152972</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.050561013111934</v>
+        <v>1.044209754966723</v>
       </c>
       <c r="J20">
-        <v>1.032687690086081</v>
+        <v>1.045951963889023</v>
       </c>
       <c r="K20">
-        <v>1.038250643006083</v>
+        <v>1.047390852910529</v>
       </c>
       <c r="L20">
-        <v>1.033516322102878</v>
+        <v>1.051055854419472</v>
       </c>
       <c r="M20">
-        <v>1.039223573080831</v>
+        <v>1.060445158969641</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>1.000005357594314</v>
+        <v>1.038765662232394</v>
       </c>
       <c r="D21">
-        <v>1.020590472994457</v>
+        <v>1.04325890470528</v>
       </c>
       <c r="E21">
-        <v>1.015332987240044</v>
+        <v>1.046808827149426</v>
       </c>
       <c r="F21">
-        <v>1.020571071888675</v>
+        <v>1.056105926308918</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.048545845638018</v>
+        <v>1.043902765345991</v>
       </c>
       <c r="J21">
-        <v>1.029502854810869</v>
+        <v>1.045331607505189</v>
       </c>
       <c r="K21">
-        <v>1.035191977937383</v>
+        <v>1.046812235899769</v>
       </c>
       <c r="L21">
-        <v>1.030029579864832</v>
+        <v>1.050349198164339</v>
       </c>
       <c r="M21">
-        <v>1.035172925382899</v>
+        <v>1.059612810810604</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9965607474606084</v>
+        <v>1.038127681205113</v>
       </c>
       <c r="D22">
-        <v>1.01799852334661</v>
+        <v>1.042764910962247</v>
       </c>
       <c r="E22">
-        <v>1.012459778780421</v>
+        <v>1.046235105281015</v>
       </c>
       <c r="F22">
-        <v>1.017334801171665</v>
+        <v>1.055454425348613</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.047240468219916</v>
+        <v>1.043708626194142</v>
       </c>
       <c r="J22">
-        <v>1.027452638416644</v>
+        <v>1.044941405153422</v>
       </c>
       <c r="K22">
-        <v>1.033221663941158</v>
+        <v>1.046448073051969</v>
       </c>
       <c r="L22">
-        <v>1.027788381116366</v>
+        <v>1.049905096705745</v>
       </c>
       <c r="M22">
-        <v>1.032570500358649</v>
+        <v>1.059089891695782</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9983943066447811</v>
+        <v>1.03846583595878</v>
       </c>
       <c r="D23">
-        <v>1.019377805942147</v>
+        <v>1.043026750945305</v>
       </c>
       <c r="E23">
-        <v>1.013988426489618</v>
+        <v>1.046539159702276</v>
       </c>
       <c r="F23">
-        <v>1.019056655181515</v>
+        <v>1.055799694503093</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.047936196034964</v>
+        <v>1.043811649217287</v>
       </c>
       <c r="J23">
-        <v>1.028544153603753</v>
+        <v>1.045148273584068</v>
       </c>
       <c r="K23">
-        <v>1.034270760536832</v>
+        <v>1.046641156748115</v>
       </c>
       <c r="L23">
-        <v>1.028981256483974</v>
+        <v>1.050140503803392</v>
       </c>
       <c r="M23">
-        <v>1.033955522737876</v>
+        <v>1.059367061586836</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.00545046055106</v>
+        <v>1.039798245167296</v>
       </c>
       <c r="D24">
-        <v>1.02469424346104</v>
+        <v>1.044058368015179</v>
       </c>
       <c r="E24">
-        <v>1.019887330655595</v>
+        <v>1.047738100815092</v>
       </c>
       <c r="F24">
-        <v>1.025700235925622</v>
+        <v>1.057161280628278</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.050594166075358</v>
+        <v>1.044214882608919</v>
       </c>
       <c r="J24">
-        <v>1.032740301850853</v>
+        <v>1.045962361461245</v>
       </c>
       <c r="K24">
-        <v>1.038301147861224</v>
+        <v>1.04740054726154</v>
       </c>
       <c r="L24">
-        <v>1.033573977155785</v>
+        <v>1.05106770493076</v>
       </c>
       <c r="M24">
-        <v>1.039290573520642</v>
+        <v>1.060459120268968</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.013326688093059</v>
+        <v>1.041346718332811</v>
       </c>
       <c r="D25">
-        <v>1.030643582409687</v>
+        <v>1.045257056903235</v>
       </c>
       <c r="E25">
-        <v>1.026502828826062</v>
+        <v>1.049133299076048</v>
       </c>
       <c r="F25">
-        <v>1.03314956054519</v>
+        <v>1.058746018484095</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.053519755548514</v>
+        <v>1.044677901947069</v>
       </c>
       <c r="J25">
-        <v>1.037413731482774</v>
+        <v>1.046906334271387</v>
       </c>
       <c r="K25">
-        <v>1.042784116791576</v>
+        <v>1.048280158963486</v>
       </c>
       <c r="L25">
-        <v>1.038703196137828</v>
+        <v>1.052144506836677</v>
       </c>
       <c r="M25">
-        <v>1.04525417898093</v>
+        <v>1.061728139079466</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_17/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_17/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.042583576362612</v>
+        <v>1.019379210512055</v>
       </c>
       <c r="D2">
-        <v>1.04621432663889</v>
+        <v>1.035225278481811</v>
       </c>
       <c r="E2">
-        <v>1.050249189732453</v>
+        <v>1.031609602055597</v>
       </c>
       <c r="F2">
-        <v>1.060013728620032</v>
+        <v>1.038899413448819</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.045043220182748</v>
+        <v>1.055733328380159</v>
       </c>
       <c r="J2">
-        <v>1.047658616253984</v>
+        <v>1.040995348878721</v>
       </c>
       <c r="K2">
-        <v>1.048980389635455</v>
+        <v>1.046214748905857</v>
       </c>
       <c r="L2">
-        <v>1.053003992029428</v>
+        <v>1.042645452545926</v>
       </c>
       <c r="M2">
-        <v>1.062741663782414</v>
+        <v>1.049842166777286</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.043482668522082</v>
+        <v>1.023650757082516</v>
       </c>
       <c r="D3">
-        <v>1.046910058106103</v>
+        <v>1.038463545636255</v>
       </c>
       <c r="E3">
-        <v>1.051061187548894</v>
+        <v>1.035226236626166</v>
       </c>
       <c r="F3">
-        <v>1.060936333509081</v>
+        <v>1.042971358604515</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045306150462784</v>
+        <v>1.05727477917706</v>
       </c>
       <c r="J3">
-        <v>1.048204456751718</v>
+        <v>1.043516804728222</v>
       </c>
       <c r="K3">
-        <v>1.049488019752258</v>
+        <v>1.048626840864308</v>
       </c>
       <c r="L3">
-        <v>1.053628399485885</v>
+        <v>1.04542738968213</v>
       </c>
       <c r="M3">
-        <v>1.063478337353851</v>
+        <v>1.053082422006661</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.044064908164322</v>
+        <v>1.026360812945861</v>
       </c>
       <c r="D4">
-        <v>1.047360543556814</v>
+        <v>1.040519939795512</v>
       </c>
       <c r="E4">
-        <v>1.05158741108993</v>
+        <v>1.037526352053636</v>
       </c>
       <c r="F4">
-        <v>1.061534299556387</v>
+        <v>1.045561056106135</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.045475204905993</v>
+        <v>1.058242888670558</v>
       </c>
       <c r="J4">
-        <v>1.048557468687856</v>
+        <v>1.045113425878682</v>
       </c>
       <c r="K4">
-        <v>1.049816114064151</v>
+        <v>1.050152735889937</v>
       </c>
       <c r="L4">
-        <v>1.05403258557085</v>
+        <v>1.047192018763273</v>
       </c>
       <c r="M4">
-        <v>1.063955360593249</v>
+        <v>1.055139020738624</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.044309792222398</v>
+        <v>1.027487639110381</v>
       </c>
       <c r="D5">
-        <v>1.047549998107094</v>
+        <v>1.041375388732414</v>
       </c>
       <c r="E5">
-        <v>1.051808827043239</v>
+        <v>1.038484028272476</v>
       </c>
       <c r="F5">
-        <v>1.061785917271145</v>
+        <v>1.046639315625159</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.045546016370767</v>
+        <v>1.058643023192148</v>
       </c>
       <c r="J5">
-        <v>1.048705829920034</v>
+        <v>1.045776518485755</v>
       </c>
       <c r="K5">
-        <v>1.049953953708489</v>
+        <v>1.050786093078345</v>
       </c>
       <c r="L5">
-        <v>1.054202540741627</v>
+        <v>1.047925625924876</v>
       </c>
       <c r="M5">
-        <v>1.064155982676811</v>
+        <v>1.05599431238058</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.044350915777162</v>
+        <v>1.027676118326662</v>
       </c>
       <c r="D6">
-        <v>1.047581812447899</v>
+        <v>1.041518498850035</v>
       </c>
       <c r="E6">
-        <v>1.051846014945498</v>
+        <v>1.038644290037007</v>
       </c>
       <c r="F6">
-        <v>1.061828178597435</v>
+        <v>1.046819757370797</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.045557890717696</v>
+        <v>1.058709809816083</v>
       </c>
       <c r="J6">
-        <v>1.048730737754148</v>
+        <v>1.045887384723908</v>
       </c>
       <c r="K6">
-        <v>1.049977092210681</v>
+        <v>1.05089196615387</v>
       </c>
       <c r="L6">
-        <v>1.054231078999644</v>
+        <v>1.048048325450329</v>
       </c>
       <c r="M6">
-        <v>1.064189672747852</v>
+        <v>1.056137382262457</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.044068179884426</v>
+        <v>1.026375918143299</v>
       </c>
       <c r="D7">
-        <v>1.047363074782802</v>
+        <v>1.040531405588998</v>
       </c>
       <c r="E7">
-        <v>1.051590368909899</v>
+        <v>1.03753918468772</v>
       </c>
       <c r="F7">
-        <v>1.061537660771891</v>
+        <v>1.045575504464137</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.045476152110909</v>
+        <v>1.058248262032321</v>
       </c>
       <c r="J7">
-        <v>1.048559451276026</v>
+        <v>1.045122317783555</v>
       </c>
       <c r="K7">
-        <v>1.04981795624399</v>
+        <v>1.050161230492133</v>
       </c>
       <c r="L7">
-        <v>1.054034856382821</v>
+        <v>1.047201853325223</v>
       </c>
       <c r="M7">
-        <v>1.063958040996761</v>
+        <v>1.055150485366189</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.042887331333457</v>
+        <v>1.020834227982176</v>
       </c>
       <c r="D8">
-        <v>1.046449389180143</v>
+        <v>1.036327905693763</v>
       </c>
       <c r="E8">
-        <v>1.050523440247473</v>
+        <v>1.032840349401628</v>
       </c>
       <c r="F8">
-        <v>1.060325323602525</v>
+        <v>1.040285107267786</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.045132301700033</v>
+        <v>1.056260436166753</v>
       </c>
       <c r="J8">
-        <v>1.047843122918551</v>
+        <v>1.041854864196977</v>
       </c>
       <c r="K8">
-        <v>1.049152022859911</v>
+        <v>1.047037288797203</v>
       </c>
       <c r="L8">
-        <v>1.053214981101254</v>
+        <v>1.043593119007317</v>
       </c>
       <c r="M8">
-        <v>1.06299055356707</v>
+        <v>1.0509456995777</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.040810157012517</v>
+        <v>1.010635847094222</v>
       </c>
       <c r="D9">
-        <v>1.044841728025698</v>
+        <v>1.028609344746044</v>
       </c>
       <c r="E9">
-        <v>1.048649621639499</v>
+        <v>1.024238951525501</v>
       </c>
       <c r="F9">
-        <v>1.058196598536248</v>
+        <v>1.030600463744457</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.044518160277453</v>
+        <v>1.05252561120506</v>
       </c>
       <c r="J9">
-        <v>1.04657950452758</v>
+        <v>1.035818536748204</v>
       </c>
       <c r="K9">
-        <v>1.047975730173234</v>
+        <v>1.041254702635119</v>
       </c>
       <c r="L9">
-        <v>1.05177147947163</v>
+        <v>1.036950639276301</v>
       </c>
       <c r="M9">
-        <v>1.061288428620516</v>
+        <v>1.043215839683871</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.039427890323044</v>
+        <v>1.003515649946373</v>
       </c>
       <c r="D10">
-        <v>1.043771636894353</v>
+        <v>1.023235155543223</v>
       </c>
       <c r="E10">
-        <v>1.047404699969162</v>
+        <v>1.018267265573736</v>
       </c>
       <c r="F10">
-        <v>1.056782630626254</v>
+        <v>1.023875782453348</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.04410323872137</v>
+        <v>1.049868574957658</v>
       </c>
       <c r="J10">
-        <v>1.045736244723695</v>
+        <v>1.031590473595642</v>
       </c>
       <c r="K10">
-        <v>1.047189696206422</v>
+        <v>1.037197193070001</v>
       </c>
       <c r="L10">
-        <v>1.050810039722144</v>
+        <v>1.032314350075504</v>
       </c>
       <c r="M10">
-        <v>1.060155582427223</v>
+        <v>1.037826930429611</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.038829965811558</v>
+        <v>1.000349098913016</v>
       </c>
       <c r="D11">
-        <v>1.043308693622597</v>
+        <v>1.020849304759385</v>
       </c>
       <c r="E11">
-        <v>1.046866671976005</v>
+        <v>1.015620041595891</v>
       </c>
       <c r="F11">
-        <v>1.056171615685093</v>
+        <v>1.020894379614027</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.043922278655166</v>
+        <v>1.048675717935016</v>
       </c>
       <c r="J11">
-        <v>1.045370916319928</v>
+        <v>1.029707362170253</v>
       </c>
       <c r="K11">
-        <v>1.046848912434374</v>
+        <v>1.035388460979283</v>
       </c>
       <c r="L11">
-        <v>1.050393952983269</v>
+        <v>1.030253278585542</v>
       </c>
       <c r="M11">
-        <v>1.059665515935599</v>
+        <v>1.035432730323209</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.038607962289305</v>
+        <v>0.999159700341957</v>
       </c>
       <c r="D12">
-        <v>1.043136799469529</v>
+        <v>1.019953843091697</v>
       </c>
       <c r="E12">
-        <v>1.046666980897543</v>
+        <v>1.014627047396902</v>
       </c>
       <c r="F12">
-        <v>1.055944845769728</v>
+        <v>1.019775961390178</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.043854867942811</v>
+        <v>1.048226030372962</v>
       </c>
       <c r="J12">
-        <v>1.045235189396136</v>
+        <v>1.028999665783684</v>
       </c>
       <c r="K12">
-        <v>1.046722267270469</v>
+        <v>1.03470848991462</v>
       </c>
       <c r="L12">
-        <v>1.050239434545498</v>
+        <v>1.029479280944351</v>
       </c>
       <c r="M12">
-        <v>1.059483554378921</v>
+        <v>1.034533845588926</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.038655578603891</v>
+        <v>0.999415438834279</v>
       </c>
       <c r="D13">
-        <v>1.043173668447118</v>
+        <v>1.020146348259957</v>
       </c>
       <c r="E13">
-        <v>1.046709808206371</v>
+        <v>1.014840494655774</v>
       </c>
       <c r="F13">
-        <v>1.055993480142944</v>
+        <v>1.020016372378741</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.043869336541534</v>
+        <v>1.048322793000831</v>
       </c>
       <c r="J13">
-        <v>1.045264304517971</v>
+        <v>1.029151847338841</v>
       </c>
       <c r="K13">
-        <v>1.046749435916843</v>
+        <v>1.034854719575808</v>
       </c>
       <c r="L13">
-        <v>1.050272577685293</v>
+        <v>1.029645693669043</v>
       </c>
       <c r="M13">
-        <v>1.05952258251796</v>
+        <v>1.034727099997945</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.038811613042007</v>
+        <v>1.000251056124316</v>
       </c>
       <c r="D14">
-        <v>1.043294483492356</v>
+        <v>1.020775476833416</v>
       </c>
       <c r="E14">
-        <v>1.046850162248286</v>
+        <v>1.01553816100681</v>
       </c>
       <c r="F14">
-        <v>1.056152866964049</v>
+        <v>1.020802158301704</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.043916710420094</v>
+        <v>1.04863868288638</v>
       </c>
       <c r="J14">
-        <v>1.045359697648774</v>
+        <v>1.029649033732334</v>
       </c>
       <c r="K14">
-        <v>1.046838445182429</v>
+        <v>1.035332422226315</v>
       </c>
       <c r="L14">
-        <v>1.050381179726135</v>
+        <v>1.030189473839445</v>
       </c>
       <c r="M14">
-        <v>1.059650473481273</v>
+        <v>1.035358626160131</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.038907763271138</v>
+        <v>1.000764137783571</v>
       </c>
       <c r="D15">
-        <v>1.043368930100487</v>
+        <v>1.021161864997709</v>
       </c>
       <c r="E15">
-        <v>1.046936659785913</v>
+        <v>1.015966716845184</v>
       </c>
       <c r="F15">
-        <v>1.056251095435427</v>
+        <v>1.021284833601925</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.043945873331855</v>
+        <v>1.048832429911326</v>
       </c>
       <c r="J15">
-        <v>1.045418468867749</v>
+        <v>1.029954265550257</v>
       </c>
       <c r="K15">
-        <v>1.046893278426585</v>
+        <v>1.03562566295386</v>
       </c>
       <c r="L15">
-        <v>1.05044809766218</v>
+        <v>1.030523386660872</v>
       </c>
       <c r="M15">
-        <v>1.059729280767508</v>
+        <v>1.035746448144135</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.039467585476067</v>
+        <v>1.003723989627695</v>
       </c>
       <c r="D16">
-        <v>1.043802369749776</v>
+        <v>1.023392222873721</v>
       </c>
       <c r="E16">
-        <v>1.047440428974294</v>
+        <v>1.018441619430572</v>
       </c>
       <c r="F16">
-        <v>1.056823207987349</v>
+        <v>1.024072137216547</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.044115221190441</v>
+        <v>1.049946828210958</v>
       </c>
       <c r="J16">
-        <v>1.045760486425632</v>
+        <v>1.031714316493621</v>
       </c>
       <c r="K16">
-        <v>1.047212304022936</v>
+        <v>1.037316112309727</v>
       </c>
       <c r="L16">
-        <v>1.050837658829566</v>
+        <v>1.032449976779789</v>
       </c>
       <c r="M16">
-        <v>1.060188116403634</v>
+        <v>1.037984508167049</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.039818910271734</v>
+        <v>1.005557828513072</v>
       </c>
       <c r="D17">
-        <v>1.044074366691559</v>
+        <v>1.024775240550348</v>
       </c>
       <c r="E17">
-        <v>1.047756707267905</v>
+        <v>1.019977290067829</v>
       </c>
       <c r="F17">
-        <v>1.057182412834019</v>
+        <v>1.025801542111547</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.044221102043436</v>
+        <v>1.050634355813471</v>
       </c>
       <c r="J17">
-        <v>1.045974974522639</v>
+        <v>1.032804090344908</v>
       </c>
       <c r="K17">
-        <v>1.047412307097723</v>
+        <v>1.038362380821796</v>
       </c>
       <c r="L17">
-        <v>1.051082080810931</v>
+        <v>1.033643882834382</v>
       </c>
       <c r="M17">
-        <v>1.060476056882982</v>
+        <v>1.039371811254461</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.040023890478558</v>
+        <v>1.006619470096156</v>
       </c>
       <c r="D18">
-        <v>1.044233057677641</v>
+        <v>1.025576288407512</v>
       </c>
       <c r="E18">
-        <v>1.047941286448838</v>
+        <v>1.020867125238094</v>
       </c>
       <c r="F18">
-        <v>1.05739205072127</v>
+        <v>1.026803600322178</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.044282735435164</v>
+        <v>1.051031310987044</v>
       </c>
       <c r="J18">
-        <v>1.046100063267775</v>
+        <v>1.033434713391249</v>
       </c>
       <c r="K18">
-        <v>1.047528924343622</v>
+        <v>1.038967677644073</v>
       </c>
       <c r="L18">
-        <v>1.051224669454941</v>
+        <v>1.034335130443081</v>
       </c>
       <c r="M18">
-        <v>1.060644052313079</v>
+        <v>1.040175169897937</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.040093793300506</v>
+        <v>1.006980123939633</v>
       </c>
       <c r="D19">
-        <v>1.044287173903144</v>
+        <v>1.025848480141116</v>
       </c>
       <c r="E19">
-        <v>1.048004239993497</v>
+        <v>1.021169549726845</v>
       </c>
       <c r="F19">
-        <v>1.057463552091932</v>
+        <v>1.027144160030281</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.044303729586471</v>
+        <v>1.051165979639513</v>
       </c>
       <c r="J19">
-        <v>1.046142712121568</v>
+        <v>1.033648898096607</v>
       </c>
       <c r="K19">
-        <v>1.047568680795692</v>
+        <v>1.039173234662383</v>
       </c>
       <c r="L19">
-        <v>1.051273292097493</v>
+        <v>1.034569967794326</v>
       </c>
       <c r="M19">
-        <v>1.060701341940939</v>
+        <v>1.040448118251232</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.039781210397011</v>
+        <v>1.005361907658548</v>
       </c>
       <c r="D20">
-        <v>1.044045179869207</v>
+        <v>1.024627442455497</v>
       </c>
       <c r="E20">
-        <v>1.047722763307412</v>
+        <v>1.019813140219404</v>
       </c>
       <c r="F20">
-        <v>1.057143861152972</v>
+        <v>1.025616687493883</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.044209754966723</v>
+        <v>1.050561013111935</v>
       </c>
       <c r="J20">
-        <v>1.045951963889023</v>
+        <v>1.032687690086081</v>
       </c>
       <c r="K20">
-        <v>1.047390852910529</v>
+        <v>1.038250643006083</v>
       </c>
       <c r="L20">
-        <v>1.051055854419472</v>
+        <v>1.033516322102878</v>
       </c>
       <c r="M20">
-        <v>1.060445158969641</v>
+        <v>1.039223573080831</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.038765662232394</v>
+        <v>1.000005357594314</v>
       </c>
       <c r="D21">
-        <v>1.04325890470528</v>
+        <v>1.020590472994457</v>
       </c>
       <c r="E21">
-        <v>1.046808827149426</v>
+        <v>1.015332987240044</v>
       </c>
       <c r="F21">
-        <v>1.056105926308918</v>
+        <v>1.020571071888676</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.043902765345991</v>
+        <v>1.048545845638018</v>
       </c>
       <c r="J21">
-        <v>1.045331607505189</v>
+        <v>1.02950285481087</v>
       </c>
       <c r="K21">
-        <v>1.046812235899769</v>
+        <v>1.035191977937383</v>
       </c>
       <c r="L21">
-        <v>1.050349198164339</v>
+        <v>1.030029579864832</v>
       </c>
       <c r="M21">
-        <v>1.059612810810604</v>
+        <v>1.0351729253829</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.038127681205113</v>
+        <v>0.996560747460608</v>
       </c>
       <c r="D22">
-        <v>1.042764910962247</v>
+        <v>1.01799852334661</v>
       </c>
       <c r="E22">
-        <v>1.046235105281015</v>
+        <v>1.012459778780421</v>
       </c>
       <c r="F22">
-        <v>1.055454425348613</v>
+        <v>1.017334801171665</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.043708626194142</v>
+        <v>1.047240468219916</v>
       </c>
       <c r="J22">
-        <v>1.044941405153422</v>
+        <v>1.027452638416644</v>
       </c>
       <c r="K22">
-        <v>1.046448073051969</v>
+        <v>1.033221663941158</v>
       </c>
       <c r="L22">
-        <v>1.049905096705745</v>
+        <v>1.027788381116366</v>
       </c>
       <c r="M22">
-        <v>1.059089891695782</v>
+        <v>1.032570500358649</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.03846583595878</v>
+        <v>0.9983943066447796</v>
       </c>
       <c r="D23">
-        <v>1.043026750945305</v>
+        <v>1.019377805942146</v>
       </c>
       <c r="E23">
-        <v>1.046539159702276</v>
+        <v>1.013988426489617</v>
       </c>
       <c r="F23">
-        <v>1.055799694503093</v>
+        <v>1.019056655181513</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.043811649217287</v>
+        <v>1.047936196034964</v>
       </c>
       <c r="J23">
-        <v>1.045148273584068</v>
+        <v>1.028544153603751</v>
       </c>
       <c r="K23">
-        <v>1.046641156748115</v>
+        <v>1.034270760536831</v>
       </c>
       <c r="L23">
-        <v>1.050140503803392</v>
+        <v>1.028981256483972</v>
       </c>
       <c r="M23">
-        <v>1.059367061586836</v>
+        <v>1.033955522737874</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.039798245167296</v>
+        <v>1.005450460551059</v>
       </c>
       <c r="D24">
-        <v>1.044058368015179</v>
+        <v>1.02469424346104</v>
       </c>
       <c r="E24">
-        <v>1.047738100815092</v>
+        <v>1.019887330655594</v>
       </c>
       <c r="F24">
-        <v>1.057161280628278</v>
+        <v>1.025700235925621</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.044214882608919</v>
+        <v>1.050594166075358</v>
       </c>
       <c r="J24">
-        <v>1.045962361461245</v>
+        <v>1.032740301850852</v>
       </c>
       <c r="K24">
-        <v>1.04740054726154</v>
+        <v>1.038301147861224</v>
       </c>
       <c r="L24">
-        <v>1.05106770493076</v>
+        <v>1.033573977155785</v>
       </c>
       <c r="M24">
-        <v>1.060459120268968</v>
+        <v>1.039290573520642</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.041346718332811</v>
+        <v>1.013326688093058</v>
       </c>
       <c r="D25">
-        <v>1.045257056903235</v>
+        <v>1.030643582409687</v>
       </c>
       <c r="E25">
-        <v>1.049133299076048</v>
+        <v>1.026502828826062</v>
       </c>
       <c r="F25">
-        <v>1.058746018484095</v>
+        <v>1.033149560545189</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.044677901947069</v>
+        <v>1.053519755548513</v>
       </c>
       <c r="J25">
-        <v>1.046906334271387</v>
+        <v>1.037413731482773</v>
       </c>
       <c r="K25">
-        <v>1.048280158963486</v>
+        <v>1.042784116791576</v>
       </c>
       <c r="L25">
-        <v>1.052144506836677</v>
+        <v>1.038703196137827</v>
       </c>
       <c r="M25">
-        <v>1.061728139079466</v>
+        <v>1.04525417898093</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_17/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_17/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,37 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.019379210512055</v>
+        <v>1.014129755966132</v>
       </c>
       <c r="D2">
-        <v>1.035225278481811</v>
+        <v>1.035070140859257</v>
       </c>
       <c r="E2">
-        <v>1.031609602055597</v>
+        <v>1.017873890695028</v>
       </c>
       <c r="F2">
-        <v>1.038899413448819</v>
+        <v>1.040494578230079</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.055733328380159</v>
+        <v>1.055809830907803</v>
       </c>
       <c r="J2">
-        <v>1.040995348878721</v>
+        <v>1.035895908205504</v>
       </c>
       <c r="K2">
-        <v>1.046214748905857</v>
+        <v>1.046061592996351</v>
       </c>
       <c r="L2">
-        <v>1.042645452545926</v>
+        <v>1.029089705739549</v>
       </c>
       <c r="M2">
-        <v>1.049842166777286</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.051417177002802</v>
+      </c>
+      <c r="N2">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.049265584760847</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.043639809912346</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -459,37 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.023650757082516</v>
+        <v>1.019675612236467</v>
       </c>
       <c r="D3">
-        <v>1.038463545636255</v>
+        <v>1.038792462037829</v>
       </c>
       <c r="E3">
-        <v>1.035226236626166</v>
+        <v>1.022478253791357</v>
       </c>
       <c r="F3">
-        <v>1.042971358604515</v>
+        <v>1.044084865029509</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.05727477917706</v>
+        <v>1.057275776884669</v>
       </c>
       <c r="J3">
-        <v>1.043516804728222</v>
+        <v>1.039643901844299</v>
       </c>
       <c r="K3">
-        <v>1.048626840864308</v>
+        <v>1.048951927170688</v>
       </c>
       <c r="L3">
-        <v>1.04542738968213</v>
+        <v>1.032831378092466</v>
       </c>
       <c r="M3">
-        <v>1.053082422006661</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.054183112058615</v>
+      </c>
+      <c r="N3">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.051454607494035</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.045680857980824</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -497,37 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.026360812945861</v>
+        <v>1.023182490747449</v>
       </c>
       <c r="D4">
-        <v>1.040519939795512</v>
+        <v>1.041149220150036</v>
       </c>
       <c r="E4">
-        <v>1.037526352053636</v>
+        <v>1.025394630418517</v>
       </c>
       <c r="F4">
-        <v>1.045561056106135</v>
+        <v>1.046361929905856</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.058242888670558</v>
+        <v>1.058189646134731</v>
       </c>
       <c r="J4">
-        <v>1.045113425878682</v>
+        <v>1.04201121789513</v>
       </c>
       <c r="K4">
-        <v>1.050152735889937</v>
+        <v>1.050775136051341</v>
       </c>
       <c r="L4">
-        <v>1.047192018763273</v>
+        <v>1.035195929117212</v>
       </c>
       <c r="M4">
-        <v>1.055139020738624</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.055931243187553</v>
+      </c>
+      <c r="N4">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.052838114185758</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.046970892769949</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -535,37 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.027487639110381</v>
+        <v>1.024645938870803</v>
       </c>
       <c r="D5">
-        <v>1.041375388732414</v>
+        <v>1.042135533696241</v>
       </c>
       <c r="E5">
-        <v>1.038484028272476</v>
+        <v>1.026614757672928</v>
       </c>
       <c r="F5">
-        <v>1.046639315625159</v>
+        <v>1.047314226351495</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.058643023192148</v>
+        <v>1.058569658913966</v>
       </c>
       <c r="J5">
-        <v>1.045776518485755</v>
+        <v>1.043000802383085</v>
       </c>
       <c r="K5">
-        <v>1.050786093078345</v>
+        <v>1.05153815095806</v>
       </c>
       <c r="L5">
-        <v>1.047925625924876</v>
+        <v>1.036185414888519</v>
       </c>
       <c r="M5">
-        <v>1.05599431238058</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.056662130107302</v>
+      </c>
+      <c r="N5">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.053416552273304</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.047517498977759</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -573,37 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.027676118326662</v>
+        <v>1.024900190770747</v>
       </c>
       <c r="D6">
-        <v>1.041518498850035</v>
+        <v>1.042309568823226</v>
       </c>
       <c r="E6">
-        <v>1.038644290037007</v>
+        <v>1.026829220277564</v>
       </c>
       <c r="F6">
-        <v>1.046819757370797</v>
+        <v>1.047480381650418</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.058709809816083</v>
+        <v>1.058637754984688</v>
       </c>
       <c r="J6">
-        <v>1.045887384723908</v>
+        <v>1.043175576729376</v>
       </c>
       <c r="K6">
-        <v>1.05089196615387</v>
+        <v>1.051674659044846</v>
       </c>
       <c r="L6">
-        <v>1.048048325450329</v>
+        <v>1.036361119760717</v>
       </c>
       <c r="M6">
-        <v>1.056137382262457</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.056791096048234</v>
+      </c>
+      <c r="N6">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.053518618374899</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.047622675898556</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -611,37 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.026375918143299</v>
+        <v>1.023228214344107</v>
       </c>
       <c r="D7">
-        <v>1.040531405588998</v>
+        <v>1.041187131432473</v>
       </c>
       <c r="E7">
-        <v>1.03753918468772</v>
+        <v>1.025439383171174</v>
       </c>
       <c r="F7">
-        <v>1.045575504464137</v>
+        <v>1.046393317047079</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.058248262032321</v>
+        <v>1.058207634487249</v>
       </c>
       <c r="J7">
-        <v>1.045122317783555</v>
+        <v>1.042049961540971</v>
       </c>
       <c r="K7">
-        <v>1.050161230492133</v>
+        <v>1.050809789803525</v>
       </c>
       <c r="L7">
-        <v>1.047201853325223</v>
+        <v>1.035237272514493</v>
       </c>
       <c r="M7">
-        <v>1.055150485366189</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.055959467026657</v>
+      </c>
+      <c r="N7">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.052860451087804</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.047015313313705</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -649,37 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.020834227982176</v>
+        <v>1.016055154035331</v>
       </c>
       <c r="D8">
-        <v>1.036327905693763</v>
+        <v>1.036370701768614</v>
       </c>
       <c r="E8">
-        <v>1.032840349401628</v>
+        <v>1.019480324333861</v>
       </c>
       <c r="F8">
-        <v>1.040285107267786</v>
+        <v>1.04174160653981</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.056260436166753</v>
+        <v>1.056329026753043</v>
       </c>
       <c r="J8">
-        <v>1.041854864196977</v>
+        <v>1.037207664318672</v>
       </c>
       <c r="K8">
-        <v>1.047037288797203</v>
+        <v>1.04707955473122</v>
       </c>
       <c r="L8">
-        <v>1.043593119007317</v>
+        <v>1.030402732419767</v>
       </c>
       <c r="M8">
-        <v>1.0509456995777</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.052384356810589</v>
+      </c>
+      <c r="N8">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.050031033175845</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.044382321946564</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -687,37 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.010635847094222</v>
+        <v>1.002706743940019</v>
       </c>
       <c r="D9">
-        <v>1.028609344746044</v>
+        <v>1.027423925138509</v>
       </c>
       <c r="E9">
-        <v>1.024238951525501</v>
+        <v>1.008421034761795</v>
       </c>
       <c r="F9">
-        <v>1.030600463744457</v>
+        <v>1.033141177346412</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.05252561120506</v>
+        <v>1.052721045916956</v>
       </c>
       <c r="J9">
-        <v>1.035818536748204</v>
+        <v>1.028164280842328</v>
       </c>
       <c r="K9">
-        <v>1.041254702635119</v>
+        <v>1.040087203194062</v>
       </c>
       <c r="L9">
-        <v>1.036950639276301</v>
+        <v>1.02137894821294</v>
       </c>
       <c r="M9">
-        <v>1.043215839683871</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.045718509095124</v>
+      </c>
+      <c r="N9">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.044755511436412</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.039435141538985</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -725,37 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.003515649946373</v>
+        <v>0.9934454934305145</v>
       </c>
       <c r="D10">
-        <v>1.023235155543223</v>
+        <v>1.021269848331294</v>
       </c>
       <c r="E10">
-        <v>1.018267265573736</v>
+        <v>1.000818718900569</v>
       </c>
       <c r="F10">
-        <v>1.023875782453348</v>
+        <v>1.027290203621413</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.049868574957658</v>
+        <v>1.050182885492049</v>
       </c>
       <c r="J10">
-        <v>1.031590473595642</v>
+        <v>1.02192160010404</v>
       </c>
       <c r="K10">
-        <v>1.037197193070001</v>
+        <v>1.035265402814306</v>
       </c>
       <c r="L10">
-        <v>1.032314350075504</v>
+        <v>1.015173206842254</v>
       </c>
       <c r="M10">
-        <v>1.037826930429611</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.041183607814359</v>
+      </c>
+      <c r="N10">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.041217721286213</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.036042600714361</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -763,37 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.000349098913016</v>
+        <v>0.9904190062485727</v>
       </c>
       <c r="D11">
-        <v>1.020849304759385</v>
+        <v>1.019484092307355</v>
       </c>
       <c r="E11">
-        <v>1.015620041595891</v>
+        <v>0.9986475913570446</v>
       </c>
       <c r="F11">
-        <v>1.020894379614027</v>
+        <v>1.025950167713704</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.048675717935016</v>
+        <v>1.049564293082471</v>
       </c>
       <c r="J11">
-        <v>1.029707362170253</v>
+        <v>1.020195869947222</v>
       </c>
       <c r="K11">
-        <v>1.035388460979283</v>
+        <v>1.034047689414949</v>
       </c>
       <c r="L11">
-        <v>1.030253278585542</v>
+        <v>1.013595057270396</v>
       </c>
       <c r="M11">
-        <v>1.035432730323209</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.040398751351991</v>
+      </c>
+      <c r="N11">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.041031524785388</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.035214448249943</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -801,37 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.999159700341957</v>
+        <v>0.9896488971691284</v>
       </c>
       <c r="D12">
-        <v>1.019953843091697</v>
+        <v>1.019125411418155</v>
       </c>
       <c r="E12">
-        <v>1.014627047396902</v>
+        <v>0.9982472536549541</v>
       </c>
       <c r="F12">
-        <v>1.019775961390178</v>
+        <v>1.025876311590352</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.048226030372962</v>
+        <v>1.049503039698626</v>
       </c>
       <c r="J12">
-        <v>1.028999665783684</v>
+        <v>1.019897887963089</v>
       </c>
       <c r="K12">
-        <v>1.03470848991462</v>
+        <v>1.033895147892754</v>
       </c>
       <c r="L12">
-        <v>1.029479280944351</v>
+        <v>1.013408110734587</v>
       </c>
       <c r="M12">
-        <v>1.034533845588926</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.040524004433932</v>
+      </c>
+      <c r="N12">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.041456083669961</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.035106596525664</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -839,37 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.999415438834279</v>
+        <v>0.9906079322257452</v>
       </c>
       <c r="D13">
-        <v>1.020146348259957</v>
+        <v>1.019879918320966</v>
       </c>
       <c r="E13">
-        <v>1.014840494655774</v>
+        <v>0.9992238662186191</v>
       </c>
       <c r="F13">
-        <v>1.020016372378741</v>
+        <v>1.026812192237088</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.048322793000831</v>
+        <v>1.049892705808622</v>
       </c>
       <c r="J13">
-        <v>1.029151847338841</v>
+        <v>1.020721072897485</v>
       </c>
       <c r="K13">
-        <v>1.034854719575808</v>
+        <v>1.034593120525529</v>
       </c>
       <c r="L13">
-        <v>1.029645693669043</v>
+        <v>1.014321866899998</v>
       </c>
       <c r="M13">
-        <v>1.034727099997945</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.041400758200637</v>
+      </c>
+      <c r="N13">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.042425232167394</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.035597594483492</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -877,37 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.000251056124316</v>
+        <v>0.9920551299347498</v>
       </c>
       <c r="D14">
-        <v>1.020775476833416</v>
+        <v>1.020907119070293</v>
       </c>
       <c r="E14">
-        <v>1.01553816100681</v>
+        <v>1.000523163989943</v>
       </c>
       <c r="F14">
-        <v>1.020802158301704</v>
+        <v>1.027919398379224</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.04863868288638</v>
+        <v>1.05036661185418</v>
       </c>
       <c r="J14">
-        <v>1.029649033732334</v>
+        <v>1.021798333395057</v>
       </c>
       <c r="K14">
-        <v>1.035332422226315</v>
+        <v>1.035461708696574</v>
       </c>
       <c r="L14">
-        <v>1.030189473839445</v>
+        <v>1.015452176862429</v>
       </c>
       <c r="M14">
-        <v>1.035358626160131</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.042349632066844</v>
+      </c>
+      <c r="N14">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.043348162215558</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.036213137198784</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -915,37 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.000764137783571</v>
+        <v>0.9927996914613415</v>
       </c>
       <c r="D15">
-        <v>1.021161864997709</v>
+        <v>1.021416123889862</v>
       </c>
       <c r="E15">
-        <v>1.015966716845184</v>
+        <v>1.001156552359656</v>
       </c>
       <c r="F15">
-        <v>1.021284833601925</v>
+        <v>1.028430489828968</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.048832429911326</v>
+        <v>1.050589465563786</v>
       </c>
       <c r="J15">
-        <v>1.029954265550257</v>
+        <v>1.022322187515773</v>
       </c>
       <c r="K15">
-        <v>1.03562566295386</v>
+        <v>1.035875408012632</v>
       </c>
       <c r="L15">
-        <v>1.030523386660872</v>
+        <v>1.015984884196583</v>
       </c>
       <c r="M15">
-        <v>1.035746448144135</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.042766388224683</v>
+      </c>
+      <c r="N15">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.043715006825132</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.036511497457236</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -953,37 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.003723989627695</v>
+        <v>0.9965554294545875</v>
       </c>
       <c r="D16">
-        <v>1.023392222873721</v>
+        <v>1.023894148719398</v>
       </c>
       <c r="E16">
-        <v>1.018441619430572</v>
+        <v>1.004190313046136</v>
       </c>
       <c r="F16">
-        <v>1.024072137216547</v>
+        <v>1.030768739920737</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.049946828210958</v>
+        <v>1.051616346093346</v>
       </c>
       <c r="J16">
-        <v>1.031714316493621</v>
+        <v>1.024829156990759</v>
       </c>
       <c r="K16">
-        <v>1.037316112309727</v>
+        <v>1.037809533080241</v>
       </c>
       <c r="L16">
-        <v>1.032449976779789</v>
+        <v>1.01844786340541</v>
       </c>
       <c r="M16">
-        <v>1.037984508167049</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>1.044568708877725</v>
+      </c>
+      <c r="N16">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.04510096404466</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.037882138107296</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.005557828513072</v>
+        <v>0.9986816195809881</v>
       </c>
       <c r="D17">
-        <v>1.024775240550348</v>
+        <v>1.025260204264613</v>
       </c>
       <c r="E17">
-        <v>1.019977290067829</v>
+        <v>1.005843777412738</v>
       </c>
       <c r="F17">
-        <v>1.025801542111547</v>
+        <v>1.031979881274071</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.050634355813471</v>
+        <v>1.052153627160863</v>
       </c>
       <c r="J17">
-        <v>1.032804090344908</v>
+        <v>1.026190555648636</v>
       </c>
       <c r="K17">
-        <v>1.038362380821796</v>
+        <v>1.038839366918452</v>
       </c>
       <c r="L17">
-        <v>1.033643882834382</v>
+        <v>1.019750114040481</v>
       </c>
       <c r="M17">
-        <v>1.039371811254461</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>1.045449496406111</v>
+      </c>
+      <c r="N17">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.045668588165887</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.038612838399881</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.006619470096156</v>
+        <v>0.9995637522764041</v>
       </c>
       <c r="D18">
-        <v>1.025576288407512</v>
+        <v>1.025749815411321</v>
       </c>
       <c r="E18">
-        <v>1.020867125238094</v>
+        <v>1.006412046134919</v>
       </c>
       <c r="F18">
-        <v>1.026803600322178</v>
+        <v>1.032269158312598</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.051031310987044</v>
+        <v>1.052295380302827</v>
       </c>
       <c r="J18">
-        <v>1.033434713391249</v>
+        <v>1.026643250661667</v>
       </c>
       <c r="K18">
-        <v>1.038967677644073</v>
+        <v>1.039138398692964</v>
       </c>
       <c r="L18">
-        <v>1.034335130443081</v>
+        <v>1.02012100965048</v>
       </c>
       <c r="M18">
-        <v>1.040175169897937</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>1.045553198748195</v>
+      </c>
+      <c r="N18">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.045513858899666</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.038812662774473</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.006980123939633</v>
+        <v>0.9993314779509186</v>
       </c>
       <c r="D19">
-        <v>1.025848480141116</v>
+        <v>1.025457442909278</v>
       </c>
       <c r="E19">
-        <v>1.021169549726845</v>
+        <v>1.006018433039601</v>
       </c>
       <c r="F19">
-        <v>1.027144160030281</v>
+        <v>1.031725362555325</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.051165979639513</v>
+        <v>1.052086859197106</v>
       </c>
       <c r="J19">
-        <v>1.033648898096607</v>
+        <v>1.026284989964137</v>
       </c>
       <c r="K19">
-        <v>1.039173234662383</v>
+        <v>1.038788487015803</v>
       </c>
       <c r="L19">
-        <v>1.034569967794326</v>
+        <v>1.019670092477558</v>
       </c>
       <c r="M19">
-        <v>1.040448118251232</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1.044956326655026</v>
+      </c>
+      <c r="N19">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.044717888228648</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.038571641125816</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.005361907658548</v>
+        <v>0.9959353388557757</v>
       </c>
       <c r="D20">
-        <v>1.024627442455497</v>
+        <v>1.022942195283949</v>
       </c>
       <c r="E20">
-        <v>1.019813140219404</v>
+        <v>1.002883172136193</v>
       </c>
       <c r="F20">
-        <v>1.025616687493883</v>
+        <v>1.02886786037532</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.050561013111935</v>
+        <v>1.050886145932293</v>
       </c>
       <c r="J20">
-        <v>1.032687690086081</v>
+        <v>1.023623850578004</v>
       </c>
       <c r="K20">
-        <v>1.038250643006083</v>
+        <v>1.036593283053554</v>
       </c>
       <c r="L20">
-        <v>1.033516322102878</v>
+        <v>1.016875513186535</v>
       </c>
       <c r="M20">
-        <v>1.039223573080831</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1.042421410551336</v>
+      </c>
+      <c r="N20">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.042186794283061</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.03702348333369</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.000005357594314</v>
+        <v>0.9887094705476392</v>
       </c>
       <c r="D21">
-        <v>1.020590472994457</v>
+        <v>1.018105259338373</v>
       </c>
       <c r="E21">
-        <v>1.015332987240044</v>
+        <v>0.9969057271386589</v>
       </c>
       <c r="F21">
-        <v>1.020571071888676</v>
+        <v>1.024209631049602</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.048545845638018</v>
+        <v>1.04883845471052</v>
       </c>
       <c r="J21">
-        <v>1.02950285481087</v>
+        <v>1.018686948096672</v>
       </c>
       <c r="K21">
-        <v>1.035191977937383</v>
+        <v>1.032751553088028</v>
       </c>
       <c r="L21">
-        <v>1.030029579864832</v>
+        <v>1.011945959555355</v>
       </c>
       <c r="M21">
-        <v>1.0351729253829</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>1.038746415683892</v>
+      </c>
+      <c r="N21">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.039237578356924</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.034310495207442</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.996560747460608</v>
+        <v>0.9840736227552924</v>
       </c>
       <c r="D22">
-        <v>1.01799852334661</v>
+        <v>1.015015302304898</v>
       </c>
       <c r="E22">
-        <v>1.012459778780421</v>
+        <v>0.993087578930871</v>
       </c>
       <c r="F22">
-        <v>1.017334801171665</v>
+        <v>1.021267184595382</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.047240468219916</v>
+        <v>1.047520146692078</v>
       </c>
       <c r="J22">
-        <v>1.027452638416644</v>
+        <v>1.015529112978527</v>
       </c>
       <c r="K22">
-        <v>1.033221663941158</v>
+        <v>1.030295058531924</v>
       </c>
       <c r="L22">
-        <v>1.027788381116366</v>
+        <v>1.008797227316823</v>
       </c>
       <c r="M22">
-        <v>1.032570500358649</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>1.036428788286143</v>
+      </c>
+      <c r="N22">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.037403326094211</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.032560138276976</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9983943066447796</v>
+        <v>0.9865151122232759</v>
       </c>
       <c r="D23">
-        <v>1.019377805942146</v>
+        <v>1.016635198905495</v>
       </c>
       <c r="E23">
-        <v>1.013988426489617</v>
+        <v>0.9950892672197658</v>
       </c>
       <c r="F23">
-        <v>1.019056655181513</v>
+        <v>1.022814140696087</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.047936196034964</v>
+        <v>1.048210311688611</v>
       </c>
       <c r="J23">
-        <v>1.028544153603751</v>
+        <v>1.017184354856617</v>
       </c>
       <c r="K23">
-        <v>1.034270760536831</v>
+        <v>1.031578806652166</v>
       </c>
       <c r="L23">
-        <v>1.028981256483972</v>
+        <v>1.010443555037281</v>
       </c>
       <c r="M23">
-        <v>1.033955522737874</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1.037644128736443</v>
+      </c>
+      <c r="N23">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.038365190081851</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.033458152222783</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.005450460551059</v>
+        <v>0.9959041449483904</v>
       </c>
       <c r="D24">
-        <v>1.02469424346104</v>
+        <v>1.022890061970618</v>
       </c>
       <c r="E24">
-        <v>1.019887330655594</v>
+        <v>1.002817768355533</v>
       </c>
       <c r="F24">
-        <v>1.025700235925621</v>
+        <v>1.028790058004593</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.050594166075358</v>
+        <v>1.050847759105362</v>
       </c>
       <c r="J24">
-        <v>1.032740301850852</v>
+        <v>1.023560778214215</v>
       </c>
       <c r="K24">
-        <v>1.038301147861224</v>
+        <v>1.036526782922203</v>
       </c>
       <c r="L24">
-        <v>1.033573977155785</v>
+        <v>1.016795580862339</v>
       </c>
       <c r="M24">
-        <v>1.039290573520642</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1.042329772371658</v>
+      </c>
+      <c r="N24">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.042073564311069</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.036949101865452</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.013326688093058</v>
+        <v>1.006287517739641</v>
       </c>
       <c r="D25">
-        <v>1.030643582409687</v>
+        <v>1.029831486760645</v>
       </c>
       <c r="E25">
-        <v>1.026502828826062</v>
+        <v>1.011394851726898</v>
       </c>
       <c r="F25">
-        <v>1.033149560545189</v>
+        <v>1.035443342295951</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.053519755548513</v>
+        <v>1.053709842204412</v>
       </c>
       <c r="J25">
-        <v>1.037413731482773</v>
+        <v>1.030605118904668</v>
       </c>
       <c r="K25">
-        <v>1.042784116791576</v>
+        <v>1.041983707687676</v>
       </c>
       <c r="L25">
-        <v>1.038703196137827</v>
+        <v>1.023818815585082</v>
       </c>
       <c r="M25">
-        <v>1.04525417898093</v>
+        <v>1.047515278758583</v>
+      </c>
+      <c r="N25">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.046177524445589</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.040804542682031</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_17/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_17/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.014129755966132</v>
+        <v>1.012381942793283</v>
       </c>
       <c r="D2">
-        <v>1.035070140859257</v>
+        <v>1.033033742956319</v>
       </c>
       <c r="E2">
-        <v>1.017873890695028</v>
+        <v>1.016663021881679</v>
       </c>
       <c r="F2">
-        <v>1.040494578230079</v>
+        <v>1.039003119322304</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.055809830907803</v>
+        <v>1.054750484064837</v>
       </c>
       <c r="J2">
-        <v>1.035895908205504</v>
+        <v>1.034198515569949</v>
       </c>
       <c r="K2">
-        <v>1.046061592996351</v>
+        <v>1.044051276835435</v>
       </c>
       <c r="L2">
-        <v>1.029089705739549</v>
+        <v>1.027894994552458</v>
       </c>
       <c r="M2">
-        <v>1.051417177002802</v>
+        <v>1.049944560002198</v>
       </c>
       <c r="N2">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.049265584760847</v>
+        <v>1.048100120176883</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.043639809912346</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.042227078467785</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.023339596992249</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.019675612236467</v>
+        <v>1.017553514055405</v>
       </c>
       <c r="D3">
-        <v>1.038792462037829</v>
+        <v>1.036372097940989</v>
       </c>
       <c r="E3">
-        <v>1.022478253791357</v>
+        <v>1.020896873436108</v>
       </c>
       <c r="F3">
-        <v>1.044084865029509</v>
+        <v>1.04230837449178</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.057275776884669</v>
+        <v>1.056015291825771</v>
       </c>
       <c r="J3">
-        <v>1.039643901844299</v>
+        <v>1.037576827813194</v>
       </c>
       <c r="K3">
-        <v>1.048951927170688</v>
+        <v>1.046559817577231</v>
       </c>
       <c r="L3">
-        <v>1.032831378092466</v>
+        <v>1.031269178386594</v>
       </c>
       <c r="M3">
-        <v>1.054183112058615</v>
+        <v>1.05242708485538</v>
       </c>
       <c r="N3">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.051454607494035</v>
+        <v>1.050064849118201</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.045680857980824</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.043997887160083</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.023943826441008</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.023182490747449</v>
+        <v>1.020828169147302</v>
       </c>
       <c r="D4">
-        <v>1.041149220150036</v>
+        <v>1.038488955193197</v>
       </c>
       <c r="E4">
-        <v>1.025394630418517</v>
+        <v>1.023583546802555</v>
       </c>
       <c r="F4">
-        <v>1.046361929905856</v>
+        <v>1.044407707017048</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.058189646134731</v>
+        <v>1.056803251758615</v>
       </c>
       <c r="J4">
-        <v>1.04201121789513</v>
+        <v>1.039713688126071</v>
       </c>
       <c r="K4">
-        <v>1.050775136051341</v>
+        <v>1.048144026796416</v>
       </c>
       <c r="L4">
-        <v>1.035195929117212</v>
+        <v>1.033405433437644</v>
       </c>
       <c r="M4">
-        <v>1.055931243187553</v>
+        <v>1.053998159170188</v>
       </c>
       <c r="N4">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.052838114185758</v>
+        <v>1.051308231850261</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.046970892769949</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.045119012187142</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.024322850647158</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.024645938870803</v>
+        <v>1.022194846544222</v>
       </c>
       <c r="D5">
-        <v>1.042135533696241</v>
+        <v>1.039375263854565</v>
       </c>
       <c r="E5">
-        <v>1.026614757672928</v>
+        <v>1.024707602389017</v>
       </c>
       <c r="F5">
-        <v>1.047314226351495</v>
+        <v>1.04528594032402</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.058569658913966</v>
+        <v>1.057130722521685</v>
       </c>
       <c r="J5">
-        <v>1.043000802383085</v>
+        <v>1.040607019016499</v>
       </c>
       <c r="K5">
-        <v>1.05153815095806</v>
+        <v>1.048807316481711</v>
       </c>
       <c r="L5">
-        <v>1.036185414888519</v>
+        <v>1.034299339634497</v>
       </c>
       <c r="M5">
-        <v>1.056662130107302</v>
+        <v>1.054655194178292</v>
       </c>
       <c r="N5">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.053416552273304</v>
+        <v>1.051828223179738</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.047517498977759</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.045595820815425</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.024482326475302</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.024900190770747</v>
+        <v>1.02243128534362</v>
       </c>
       <c r="D6">
-        <v>1.042309568823226</v>
+        <v>1.039531286707599</v>
       </c>
       <c r="E6">
-        <v>1.026829220277564</v>
+        <v>1.024903884546887</v>
       </c>
       <c r="F6">
-        <v>1.047480381650418</v>
+        <v>1.045438695054588</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.058637754984688</v>
+        <v>1.057189353701299</v>
       </c>
       <c r="J6">
-        <v>1.043175576729376</v>
+        <v>1.040764090734634</v>
       </c>
       <c r="K6">
-        <v>1.051674659044846</v>
+        <v>1.048925866557892</v>
       </c>
       <c r="L6">
-        <v>1.036361119760717</v>
+        <v>1.034456963453943</v>
       </c>
       <c r="M6">
-        <v>1.056791096048234</v>
+        <v>1.054770801102727</v>
       </c>
       <c r="N6">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.053518618374899</v>
+        <v>1.051919716894844</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.047622675898556</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.045689175072405</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.024512498185801</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.023228214344107</v>
+        <v>1.020867899297874</v>
       </c>
       <c r="D7">
-        <v>1.041187131432473</v>
+        <v>1.03852183701918</v>
       </c>
       <c r="E7">
-        <v>1.025439383171174</v>
+        <v>1.023620966568093</v>
       </c>
       <c r="F7">
-        <v>1.046393317047079</v>
+        <v>1.044435186650808</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.058207634487249</v>
+        <v>1.0568186039909</v>
       </c>
       <c r="J7">
-        <v>1.042049961540971</v>
+        <v>1.039746555796586</v>
       </c>
       <c r="K7">
-        <v>1.050809789803525</v>
+        <v>1.048173694057907</v>
       </c>
       <c r="L7">
-        <v>1.035237272514493</v>
+        <v>1.033439518261138</v>
       </c>
       <c r="M7">
-        <v>1.055959467026657</v>
+        <v>1.054022509273658</v>
       </c>
       <c r="N7">
-        <v>1.005712725503983</v>
+        <v>1.009672849942804</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.052860451087804</v>
+        <v>1.051327503040908</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.047015313313705</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.045161919579826</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.024334631391679</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.016055154035331</v>
+        <v>1.014172210183059</v>
       </c>
       <c r="D8">
-        <v>1.036370701768614</v>
+        <v>1.034197635060924</v>
       </c>
       <c r="E8">
-        <v>1.019480324333861</v>
+        <v>1.018133753294803</v>
       </c>
       <c r="F8">
-        <v>1.04174160653981</v>
+        <v>1.040148364649215</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.056329026753043</v>
+        <v>1.055198141768726</v>
       </c>
       <c r="J8">
-        <v>1.037207664318672</v>
+        <v>1.035377144592406</v>
       </c>
       <c r="K8">
-        <v>1.04707955473122</v>
+        <v>1.04493347619369</v>
       </c>
       <c r="L8">
-        <v>1.030402732419767</v>
+        <v>1.029073568443686</v>
       </c>
       <c r="M8">
-        <v>1.052384356810589</v>
+        <v>1.050810635240485</v>
       </c>
       <c r="N8">
-        <v>1.005712725503983</v>
+        <v>1.009744168770165</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.050031033175845</v>
+        <v>1.048785553214189</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.044382321946564</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.04287587470084</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.023558677817475</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.002706743940019</v>
+        <v>1.001756925945957</v>
       </c>
       <c r="D9">
-        <v>1.027423925138509</v>
+        <v>1.026195611531743</v>
       </c>
       <c r="E9">
-        <v>1.008421034761795</v>
+        <v>1.007999832586815</v>
       </c>
       <c r="F9">
-        <v>1.033141177346412</v>
+        <v>1.03225182236094</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.052721045916956</v>
+        <v>1.052083623380746</v>
       </c>
       <c r="J9">
-        <v>1.028164280842328</v>
+        <v>1.027247794812795</v>
       </c>
       <c r="K9">
-        <v>1.040087203194062</v>
+        <v>1.038877513851269</v>
       </c>
       <c r="L9">
-        <v>1.02137894821294</v>
+        <v>1.020964437896292</v>
       </c>
       <c r="M9">
-        <v>1.045718509095124</v>
+        <v>1.044842444046877</v>
       </c>
       <c r="N9">
-        <v>1.005712725503983</v>
+        <v>1.009756663622889</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.044755511436412</v>
+        <v>1.044062168422449</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.039435141538985</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.038590518511934</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.022080195593119</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9934454934305145</v>
+        <v>0.9931470940657153</v>
       </c>
       <c r="D10">
-        <v>1.021269848331294</v>
+        <v>1.020696250712823</v>
       </c>
       <c r="E10">
-        <v>1.000818718900569</v>
+        <v>1.00103342329453</v>
       </c>
       <c r="F10">
-        <v>1.027290203621413</v>
+        <v>1.026890103334915</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.050182885492049</v>
+        <v>1.049886085184643</v>
       </c>
       <c r="J10">
-        <v>1.02192160010404</v>
+        <v>1.021635267768806</v>
       </c>
       <c r="K10">
-        <v>1.035265402814306</v>
+        <v>1.034701618948826</v>
       </c>
       <c r="L10">
-        <v>1.015173206842254</v>
+        <v>1.015384043999632</v>
       </c>
       <c r="M10">
-        <v>1.041183607814359</v>
+        <v>1.040790248298291</v>
       </c>
       <c r="N10">
-        <v>1.005712725503983</v>
+        <v>1.009913726784964</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.041217721286213</v>
+        <v>1.040906423132169</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.036042600714361</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.035656375951024</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.021068597164685</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9904190062485727</v>
+        <v>0.9901220547362798</v>
       </c>
       <c r="D11">
-        <v>1.019484092307355</v>
+        <v>1.018967027324377</v>
       </c>
       <c r="E11">
-        <v>0.9986475913570446</v>
+        <v>0.9987888534353393</v>
       </c>
       <c r="F11">
-        <v>1.025950167713704</v>
+        <v>1.025584449502245</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.049564293082471</v>
+        <v>1.049296763224061</v>
       </c>
       <c r="J11">
-        <v>1.020195869947222</v>
+        <v>1.019911620858401</v>
       </c>
       <c r="K11">
-        <v>1.034047689414949</v>
+        <v>1.033539903469788</v>
       </c>
       <c r="L11">
-        <v>1.013595057270396</v>
+        <v>1.013733646407401</v>
       </c>
       <c r="M11">
-        <v>1.040398751351991</v>
+        <v>1.0400394880724</v>
       </c>
       <c r="N11">
-        <v>1.005712725503983</v>
+        <v>1.010219287442624</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.041031524785388</v>
+        <v>1.0407473518945</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.035214448249943</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.034871045580984</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.02094740847079</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9896488971691284</v>
+        <v>0.9892499256487803</v>
       </c>
       <c r="D12">
-        <v>1.019125411418155</v>
+        <v>1.018547398830064</v>
       </c>
       <c r="E12">
-        <v>0.9982472536549541</v>
+        <v>0.9982318836866452</v>
       </c>
       <c r="F12">
-        <v>1.025876311590352</v>
+        <v>1.025459363634984</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.049503039698626</v>
+        <v>1.049203830783346</v>
       </c>
       <c r="J12">
-        <v>1.019897887963089</v>
+        <v>1.019516320508013</v>
       </c>
       <c r="K12">
-        <v>1.033895147892754</v>
+        <v>1.033327682567538</v>
       </c>
       <c r="L12">
-        <v>1.013408110734587</v>
+        <v>1.013393036592364</v>
       </c>
       <c r="M12">
-        <v>1.040524004433932</v>
+        <v>1.040114533631813</v>
       </c>
       <c r="N12">
-        <v>1.005712725503983</v>
+        <v>1.01035478389643</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.041456083669961</v>
+        <v>1.041132306298967</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.035106596525664</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.03472100163012</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.021012942632531</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9906079322257452</v>
+        <v>0.990014899585351</v>
       </c>
       <c r="D13">
-        <v>1.019879918320966</v>
+        <v>1.01914159548048</v>
       </c>
       <c r="E13">
-        <v>0.9992238662186191</v>
+        <v>0.9989709628051705</v>
       </c>
       <c r="F13">
-        <v>1.026812192237088</v>
+        <v>1.026271060283811</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.049892705808622</v>
+        <v>1.049510282558986</v>
       </c>
       <c r="J13">
-        <v>1.020721072897485</v>
+        <v>1.020153750787012</v>
       </c>
       <c r="K13">
-        <v>1.034593120525529</v>
+        <v>1.033868202073678</v>
       </c>
       <c r="L13">
-        <v>1.014321866899998</v>
+        <v>1.014073803856883</v>
       </c>
       <c r="M13">
-        <v>1.041400758200637</v>
+        <v>1.040869276664276</v>
       </c>
       <c r="N13">
-        <v>1.005712725503983</v>
+        <v>1.010324862518226</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.042425232167394</v>
+        <v>1.042005083332741</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.035597594483492</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.035100424141959</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.021242589263571</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9920551299347498</v>
+        <v>0.9912891209435387</v>
       </c>
       <c r="D14">
-        <v>1.020907119070293</v>
+        <v>1.020014958470975</v>
       </c>
       <c r="E14">
-        <v>1.000523163989943</v>
+        <v>1.000072423977915</v>
       </c>
       <c r="F14">
-        <v>1.027919398379224</v>
+        <v>1.027261076178546</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.05036661185418</v>
+        <v>1.049904327515405</v>
       </c>
       <c r="J14">
-        <v>1.021798333395057</v>
+        <v>1.021065006129131</v>
       </c>
       <c r="K14">
-        <v>1.035461708696574</v>
+        <v>1.034585528969977</v>
       </c>
       <c r="L14">
-        <v>1.015452176862429</v>
+        <v>1.015009941686128</v>
       </c>
       <c r="M14">
-        <v>1.042349632066844</v>
+        <v>1.041702890958345</v>
       </c>
       <c r="N14">
-        <v>1.005712725503983</v>
+        <v>1.010230087706879</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.043348162215558</v>
+        <v>1.042836966541719</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.036213137198784</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.035609149741428</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.021476293117947</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9927996914613415</v>
+        <v>0.9919678912903317</v>
       </c>
       <c r="D15">
-        <v>1.021416123889862</v>
+        <v>1.020461733565303</v>
       </c>
       <c r="E15">
-        <v>1.001156552359656</v>
+        <v>1.000635744824734</v>
       </c>
       <c r="F15">
-        <v>1.028430489828968</v>
+        <v>1.027725321059141</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.050589465563786</v>
+        <v>1.050094864623927</v>
       </c>
       <c r="J15">
-        <v>1.022322187515773</v>
+        <v>1.021525538362501</v>
       </c>
       <c r="K15">
-        <v>1.035875408012632</v>
+        <v>1.034937975974402</v>
       </c>
       <c r="L15">
-        <v>1.015984884196583</v>
+        <v>1.01547382089013</v>
       </c>
       <c r="M15">
-        <v>1.042766388224683</v>
+        <v>1.042073525054041</v>
       </c>
       <c r="N15">
-        <v>1.005712725503983</v>
+        <v>1.01017436097146</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.043715006825132</v>
+        <v>1.043167369742676</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.036511497457236</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.03586477207692</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.021574943128286</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9965554294545875</v>
+        <v>0.9954901029717599</v>
       </c>
       <c r="D16">
-        <v>1.023894148719398</v>
+        <v>1.022696198028366</v>
       </c>
       <c r="E16">
-        <v>1.004190313046136</v>
+        <v>1.003454164727652</v>
       </c>
       <c r="F16">
-        <v>1.030768739920737</v>
+        <v>1.029883172745262</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.051616346093346</v>
+        <v>1.050995144181884</v>
       </c>
       <c r="J16">
-        <v>1.024829156990759</v>
+        <v>1.023806440848468</v>
       </c>
       <c r="K16">
-        <v>1.037809533080241</v>
+        <v>1.036631899359715</v>
       </c>
       <c r="L16">
-        <v>1.01844786340541</v>
+        <v>1.017724836704387</v>
       </c>
       <c r="M16">
-        <v>1.044568708877725</v>
+        <v>1.043697897831268</v>
       </c>
       <c r="N16">
-        <v>1.005712725503983</v>
+        <v>1.009896956512875</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.04510096404466</v>
+        <v>1.044412657473262</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.037882138107296</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.037065871710985</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.021970166012186</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9986816195809881</v>
+        <v>0.9975250674388262</v>
       </c>
       <c r="D17">
-        <v>1.025260204264613</v>
+        <v>1.023954040926739</v>
       </c>
       <c r="E17">
-        <v>1.005843777412738</v>
+        <v>1.005042459615495</v>
       </c>
       <c r="F17">
-        <v>1.031979881274071</v>
+        <v>1.031015656457983</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.052153627160863</v>
+        <v>1.051476082211899</v>
       </c>
       <c r="J17">
-        <v>1.026190555648636</v>
+        <v>1.025078687013192</v>
       </c>
       <c r="K17">
-        <v>1.038839366918452</v>
+        <v>1.037554712042872</v>
       </c>
       <c r="L17">
-        <v>1.019750114040481</v>
+        <v>1.018962650147753</v>
       </c>
       <c r="M17">
-        <v>1.045449496406111</v>
+        <v>1.044500878187689</v>
       </c>
       <c r="N17">
-        <v>1.005712725503983</v>
+        <v>1.009769981040597</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.045668588165887</v>
+        <v>1.044918706710502</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.038612838399881</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.037721147190569</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.02215087359769</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9995637522764041</v>
+        <v>0.9984431427898287</v>
       </c>
       <c r="D18">
-        <v>1.025749815411321</v>
+        <v>1.024452854606269</v>
       </c>
       <c r="E18">
-        <v>1.006412046134919</v>
+        <v>1.005685079590693</v>
       </c>
       <c r="F18">
-        <v>1.032269158312598</v>
+        <v>1.03131505517982</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.052295380302827</v>
+        <v>1.051622535634886</v>
       </c>
       <c r="J18">
-        <v>1.026643250661667</v>
+        <v>1.025565095613659</v>
       </c>
       <c r="K18">
-        <v>1.039138398692964</v>
+        <v>1.037862439451307</v>
       </c>
       <c r="L18">
-        <v>1.02012100965048</v>
+        <v>1.019406397446192</v>
       </c>
       <c r="M18">
-        <v>1.045553198748195</v>
+        <v>1.044614289601713</v>
       </c>
       <c r="N18">
-        <v>1.005712725503983</v>
+        <v>1.009714664310362</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.045513858899666</v>
+        <v>1.044771498783581</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.038812662774473</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.037925976137543</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.022145606786822</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9993314779509186</v>
+        <v>0.9983610700805811</v>
       </c>
       <c r="D19">
-        <v>1.025457442909278</v>
+        <v>1.024276217795654</v>
       </c>
       <c r="E19">
-        <v>1.006018433039601</v>
+        <v>1.005488099118285</v>
       </c>
       <c r="F19">
-        <v>1.031725362555325</v>
+        <v>1.030862020208897</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.052086859197106</v>
+        <v>1.051474143710869</v>
       </c>
       <c r="J19">
-        <v>1.026284989964137</v>
+        <v>1.025351147258927</v>
       </c>
       <c r="K19">
-        <v>1.038788487015803</v>
+        <v>1.037626298586588</v>
       </c>
       <c r="L19">
-        <v>1.019670092477558</v>
+        <v>1.019148729734782</v>
       </c>
       <c r="M19">
-        <v>1.044956326655026</v>
+        <v>1.044106676731359</v>
       </c>
       <c r="N19">
-        <v>1.005712725503983</v>
+        <v>1.009699109624638</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.044717888228648</v>
+        <v>1.044045884351184</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.038571641125816</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.03776602242834</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.021981164612871</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9959353388557757</v>
+        <v>0.9954469142159603</v>
       </c>
       <c r="D20">
-        <v>1.022942195283949</v>
+        <v>1.022182728736164</v>
       </c>
       <c r="E20">
-        <v>1.002883172136193</v>
+        <v>1.002907270630154</v>
       </c>
       <c r="F20">
-        <v>1.02886786037532</v>
+        <v>1.028328019918255</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.050886145932293</v>
+        <v>1.050492735553021</v>
       </c>
       <c r="J20">
-        <v>1.023623850578004</v>
+        <v>1.023154485012583</v>
       </c>
       <c r="K20">
-        <v>1.036593283053554</v>
+        <v>1.035846422750073</v>
       </c>
       <c r="L20">
-        <v>1.016875513186535</v>
+        <v>1.016899191099987</v>
       </c>
       <c r="M20">
-        <v>1.042421410551336</v>
+        <v>1.04189039614804</v>
       </c>
       <c r="N20">
-        <v>1.005712725503983</v>
+        <v>1.009781698284326</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.042186794283061</v>
+        <v>1.041766553514368</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.03702348333369</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.03651191655542</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.02136127178588</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9887094705476392</v>
+        <v>0.988783572585806</v>
       </c>
       <c r="D21">
-        <v>1.018105259338373</v>
+        <v>1.017895211387356</v>
       </c>
       <c r="E21">
-        <v>0.9969057271386589</v>
+        <v>0.9974921250885518</v>
       </c>
       <c r="F21">
-        <v>1.024209631049602</v>
+        <v>1.024082992462771</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.04883845471052</v>
+        <v>1.048730364611848</v>
       </c>
       <c r="J21">
-        <v>1.018686948096672</v>
+        <v>1.018757850381307</v>
       </c>
       <c r="K21">
-        <v>1.032751553088028</v>
+        <v>1.032545303679571</v>
       </c>
       <c r="L21">
-        <v>1.011945959555355</v>
+        <v>1.012521166206768</v>
       </c>
       <c r="M21">
-        <v>1.038746415683892</v>
+        <v>1.038622031711711</v>
       </c>
       <c r="N21">
-        <v>1.005712725503983</v>
+        <v>1.010338911748788</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.039237578356924</v>
+        <v>1.039139136603082</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.034310495207442</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.034181512362021</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.020524647126145</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9840736227552924</v>
+        <v>0.9845100392652782</v>
       </c>
       <c r="D22">
-        <v>1.015015302304898</v>
+        <v>1.015157057559664</v>
       </c>
       <c r="E22">
-        <v>0.993087578930871</v>
+        <v>0.9940332770688224</v>
       </c>
       <c r="F22">
-        <v>1.021267184595382</v>
+        <v>1.02140567657394</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.047520146692078</v>
+        <v>1.047594429733524</v>
       </c>
       <c r="J22">
-        <v>1.015529112978527</v>
+        <v>1.015945485718948</v>
       </c>
       <c r="K22">
-        <v>1.030295058531924</v>
+        <v>1.030434113702748</v>
       </c>
       <c r="L22">
-        <v>1.008797227316823</v>
+        <v>1.009723869895478</v>
       </c>
       <c r="M22">
-        <v>1.036428788286143</v>
+        <v>1.036564684324081</v>
       </c>
       <c r="N22">
-        <v>1.005712725503983</v>
+        <v>1.01067819198903</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.037403326094211</v>
+        <v>1.037510879153245</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.032560138276976</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.032674015990833</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.019990706696406</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9865151122232759</v>
+        <v>0.9867643285046316</v>
       </c>
       <c r="D23">
-        <v>1.016635198905495</v>
+        <v>1.01659415339227</v>
       </c>
       <c r="E23">
-        <v>0.9950892672197658</v>
+        <v>0.9958512475769251</v>
       </c>
       <c r="F23">
-        <v>1.022814140696087</v>
+        <v>1.022815021251534</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.048210311688611</v>
+        <v>1.048189873288671</v>
       </c>
       <c r="J23">
-        <v>1.017184354856617</v>
+        <v>1.017422490685349</v>
       </c>
       <c r="K23">
-        <v>1.031578806652166</v>
+        <v>1.031538521914453</v>
       </c>
       <c r="L23">
-        <v>1.010443555037281</v>
+        <v>1.011190613790572</v>
       </c>
       <c r="M23">
-        <v>1.037644128736443</v>
+        <v>1.037644993227386</v>
       </c>
       <c r="N23">
-        <v>1.005712725503983</v>
+        <v>1.010446637671561</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.038365190081851</v>
+        <v>1.038365874270504</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.033458152222783</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.033444276654471</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.020265330973062</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9959041449483904</v>
+        <v>0.9954441555610116</v>
       </c>
       <c r="D24">
-        <v>1.022890061970618</v>
+        <v>1.02215189427416</v>
       </c>
       <c r="E24">
-        <v>1.002817768355533</v>
+        <v>1.002878994176393</v>
       </c>
       <c r="F24">
-        <v>1.028790058004593</v>
+        <v>1.028267211102156</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.050847759105362</v>
+        <v>1.050465432049906</v>
       </c>
       <c r="J24">
-        <v>1.023560778214215</v>
+        <v>1.023118713937031</v>
       </c>
       <c r="K24">
-        <v>1.036526782922203</v>
+        <v>1.035800853517237</v>
       </c>
       <c r="L24">
-        <v>1.016795580862339</v>
+        <v>1.016855739383229</v>
       </c>
       <c r="M24">
-        <v>1.042329772371658</v>
+        <v>1.041815464236707</v>
       </c>
       <c r="N24">
-        <v>1.005712725503983</v>
+        <v>1.009776345404437</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.042073564311069</v>
+        <v>1.041666524677347</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.036949101865452</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.036449656519549</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.021327675402212</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.006287517739641</v>
+        <v>1.00507606034602</v>
       </c>
       <c r="D25">
-        <v>1.029831486760645</v>
+        <v>1.028342427937228</v>
       </c>
       <c r="E25">
-        <v>1.011394851726898</v>
+        <v>1.010711604381883</v>
       </c>
       <c r="F25">
-        <v>1.035443342295951</v>
+        <v>1.034358954214583</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.053709842204412</v>
+        <v>1.052936465425704</v>
       </c>
       <c r="J25">
-        <v>1.030605118904668</v>
+        <v>1.029433794120273</v>
       </c>
       <c r="K25">
-        <v>1.041983707687676</v>
+        <v>1.040516138084533</v>
       </c>
       <c r="L25">
-        <v>1.023818815585082</v>
+        <v>1.023145881444671</v>
       </c>
       <c r="M25">
-        <v>1.047515278758583</v>
+        <v>1.046446318263936</v>
       </c>
       <c r="N25">
-        <v>1.005712725503983</v>
+        <v>1.009712335287388</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.046177524445589</v>
+        <v>1.045331519994378</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.040804542682031</v>
+        <v>1.039780390570042</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.022490581212484</v>
       </c>
     </row>
   </sheetData>
